--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Zierer\ProfiCraftsman\ProfiCraftsman\Generation\ProfiCraftsman.Generation\Declarations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProfiCraftsman\Zierer\ProfiCraftsman\ProfiCraftsman\Generation\ProfiCraftsman.Generation\Declarations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="244">
   <si>
     <t>Schema</t>
   </si>
@@ -391,12 +391,6 @@
     <t>Equipments</t>
   </si>
   <si>
-    <t>Ausstattung</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
     <t>AdditionalCosts</t>
   </si>
   <si>
@@ -610,21 +604,9 @@
     <t>CustomerId</t>
   </si>
   <si>
-    <t>Standard Ausstattungen</t>
-  </si>
-  <si>
-    <t>Standart equipments</t>
-  </si>
-  <si>
     <t>Bauart</t>
   </si>
   <si>
-    <t>EquipmentId</t>
-  </si>
-  <si>
-    <t>equipments</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -634,9 +616,6 @@
     <t>Containers</t>
   </si>
   <si>
-    <t>Ausstattungen</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -652,9 +631,6 @@
     <t>IsVirtual</t>
   </si>
   <si>
-    <t>ManufactureDate</t>
-  </si>
-  <si>
     <t>BoughtFrom</t>
   </si>
   <si>
@@ -679,12 +655,6 @@
     <t>virtual</t>
   </si>
   <si>
-    <t>Baujahr</t>
-  </si>
-  <si>
-    <t>Manufacture date</t>
-  </si>
-  <si>
     <t>Bought from</t>
   </si>
   <si>
@@ -697,15 +667,6 @@
     <t>Gekauft von</t>
   </si>
   <si>
-    <t>SellPrice</t>
-  </si>
-  <si>
-    <t>Verkaufpreis</t>
-  </si>
-  <si>
-    <t>Sell price</t>
-  </si>
-  <si>
     <t>Orders</t>
   </si>
   <si>
@@ -757,15 +718,6 @@
     <t>Positionen</t>
   </si>
   <si>
-    <t>IsSold</t>
-  </si>
-  <si>
-    <t>verkauft</t>
-  </si>
-  <si>
-    <t>sold</t>
-  </si>
-  <si>
     <t>InvoiceStornos</t>
   </si>
   <si>
@@ -838,18 +790,6 @@
     <t>Disposition</t>
   </si>
   <si>
-    <t>Min Price</t>
-  </si>
-  <si>
-    <t>Min Preis</t>
-  </si>
-  <si>
-    <t>MinPrice</t>
-  </si>
-  <si>
-    <t>Neupreis</t>
-  </si>
-  <si>
     <t>CustomToolbar</t>
   </si>
   <si>
@@ -865,9 +805,6 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Equipments,ProductTypes</t>
-  </si>
-  <si>
     <t>Produkt</t>
   </si>
   <si>
@@ -880,28 +817,70 @@
     <t>productTypes</t>
   </si>
   <si>
-    <t>NewPrice</t>
-  </si>
-  <si>
-    <t>New Price</t>
-  </si>
-  <si>
-    <t>ProductType_Equipment_Rsp</t>
-  </si>
-  <si>
-    <t>Product_Equipment_Rsp</t>
-  </si>
-  <si>
     <t>ProductId</t>
   </si>
   <si>
-    <t>OrderProduct_Equipment_Rsp</t>
-  </si>
-  <si>
-    <t>productTypeId</t>
-  </si>
-  <si>
     <t>productId</t>
+  </si>
+  <si>
+    <t>Artikelbezeichnung</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Product_Material_Rsp</t>
+  </si>
+  <si>
+    <t>MaterialId</t>
+  </si>
+  <si>
+    <t>Leistungsname</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>Materialien</t>
+  </si>
+  <si>
+    <t>OrderProduct_Material_Rsp</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>MaterialAmountType</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Amount type</t>
+  </si>
+  <si>
+    <t>materialAmountTypes</t>
+  </si>
+  <si>
+    <t>ProductAmountType</t>
+  </si>
+  <si>
+    <t>productAmountTypes</t>
+  </si>
+  <si>
+    <t>MaterialAmountTypes</t>
+  </si>
+  <si>
+    <t>Materials,ProductTypes,ProductAmountTypes</t>
+  </si>
+  <si>
+    <t>Settings/ProductMaterialRsps</t>
   </si>
 </sst>
 </file>
@@ -1336,13 +1315,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1431,7 @@
         <v>57</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>65</v>
@@ -1464,7 +1443,7 @@
         <v>67</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1662,26 +1641,23 @@
       <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
+      <c r="N6" t="s">
+        <v>241</v>
+      </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
       <c r="W6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="X6" t="s">
         <v>7</v>
@@ -1691,7 +1667,7 @@
       </c>
       <c r="AC6" s="12" t="str">
         <f t="shared" ref="AC6" si="1">O6</f>
-        <v>Ausstattung</v>
+        <v>Material</v>
       </c>
       <c r="AE6" t="s">
         <v>7</v>
@@ -1702,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1720,10 +1696,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s">
         <v>7</v>
@@ -1744,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -1762,10 +1738,10 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
         <v>7</v>
@@ -1774,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1782,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1800,10 +1776,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
@@ -1818,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="AC9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AE9" t="s">
         <v>7</v>
@@ -1829,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -1841,31 +1817,31 @@
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="14">
         <v>8</v>
       </c>
       <c r="AC10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1873,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1888,16 +1864,16 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" t="s">
         <v>142</v>
-      </c>
-      <c r="M11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" t="s">
-        <v>144</v>
       </c>
       <c r="AC11"/>
     </row>
@@ -1906,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1923,14 +1899,11 @@
       <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
       <c r="O12" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="R12" t="s">
         <v>7</v>
@@ -1945,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="AC12" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="AE12" t="s">
         <v>7</v>
@@ -1956,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1967,32 +1940,54 @@
       <c r="J13" t="s">
         <v>7</v>
       </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>249</v>
-      </c>
-      <c r="M13" t="s">
-        <v>234</v>
-      </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="O13" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC13"/>
+        <v>219</v>
+      </c>
+      <c r="R13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="T13" t="s">
+        <v>230</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Z13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2003,42 +1998,32 @@
       <c r="J14" t="s">
         <v>7</v>
       </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" t="s">
+        <v>217</v>
+      </c>
       <c r="N14" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="O14" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
-      </c>
-      <c r="R14" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Z14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>7</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AC14"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -2049,32 +2034,30 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>250</v>
-      </c>
-      <c r="M15" t="s">
-        <v>237</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15"/>
+        <v>174</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="AB15" s="14">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2085,30 +2068,29 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s">
+        <v>172</v>
+      </c>
       <c r="O16" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
-      </c>
-      <c r="R16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="AB16" s="14">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>186</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AC16"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2116,32 +2098,43 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" t="s">
-        <v>185</v>
-      </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC17"/>
+        <v>181</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2149,35 +2142,20 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="s">
+        <v>180</v>
+      </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
-      </c>
-      <c r="R18" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="T18" t="s">
-        <v>200</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB18" s="14">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2185,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2193,20 +2171,20 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="K19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" t="s">
-        <v>196</v>
-      </c>
-      <c r="M19" t="s">
-        <v>193</v>
-      </c>
       <c r="O19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2214,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2222,20 +2200,25 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
       <c r="O20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="R20" t="s">
         <v>7</v>
       </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
       <c r="AB20" s="14">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2243,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2254,30 +2237,29 @@
       <c r="J21" t="s">
         <v>7</v>
       </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s">
+        <v>192</v>
+      </c>
       <c r="O21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
-      </c>
-      <c r="R21" t="s">
-        <v>7</v>
-      </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="AB21" s="14">
-        <v>14</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>211</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AC21"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2292,54 +2274,21 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s">
-        <v>208</v>
+        <v>172</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AC22"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>189</v>
-      </c>
-      <c r="M23" t="s">
-        <v>185</v>
-      </c>
-      <c r="N23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P5">
@@ -2358,13 +2307,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2332,7 @@
     <col min="15" max="16" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2438,8 +2387,11 @@
       <c r="R1" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2552,7 +2504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2584,7 +2536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2642,7 +2594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2729,12 +2681,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2758,12 +2710,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2787,15 +2739,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2810,62 +2762,62 @@
         <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2873,10 +2825,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -2891,10 +2843,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2902,11 +2854,11 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -2920,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2931,10 +2883,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -2949,10 +2901,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2960,10 +2912,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2978,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2989,7 +2941,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -3018,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -3047,10 +2999,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -3065,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3076,10 +3028,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3094,10 +3046,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3105,10 +3057,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -3123,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O25" s="14">
         <v>1</v>
@@ -3140,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -3175,10 +3127,10 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -3193,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O27" s="14">
         <v>2</v>
@@ -3210,10 +3162,10 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -3228,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O28" s="14">
         <v>1</v>
@@ -3245,10 +3197,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -3263,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O29" s="14">
         <v>2</v>
@@ -3280,10 +3232,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -3295,10 +3247,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O30" s="14">
         <v>6</v>
@@ -3312,10 +3264,10 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -3324,10 +3276,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O31" s="14">
         <v>6</v>
@@ -3341,10 +3293,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -3356,10 +3308,10 @@
         <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O32" s="14">
         <v>6</v>
@@ -3373,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -3385,10 +3337,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O33" s="14">
         <v>1</v>
@@ -3402,10 +3354,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -3414,10 +3366,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O34" s="14">
         <v>3</v>
@@ -3431,10 +3383,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -3443,10 +3395,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O35" s="14">
         <v>3</v>
@@ -3460,10 +3412,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -3472,10 +3424,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O36" s="14">
         <v>3</v>
@@ -3489,10 +3441,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -3501,10 +3453,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="14">
         <v>7</v>
@@ -3518,10 +3470,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -3530,10 +3482,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="14">
         <v>5</v>
@@ -3547,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -3559,10 +3511,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="14">
         <v>5</v>
@@ -3576,10 +3528,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -3588,10 +3540,10 @@
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="O40" s="14">
         <v>4</v>
@@ -3605,10 +3557,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -3617,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O41" s="14">
         <v>4</v>
@@ -3634,10 +3586,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -3646,10 +3598,10 @@
         <v>7</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="O42" s="14">
         <v>4</v>
@@ -3663,10 +3615,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -3675,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O43" s="14">
         <v>7</v>
@@ -3692,10 +3644,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -3707,10 +3659,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="14">
         <v>7</v>
@@ -3724,10 +3676,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -3736,10 +3688,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="14">
         <v>5</v>
@@ -3753,10 +3705,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -3765,10 +3717,10 @@
         <v>7</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3776,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -3805,37 +3757,37 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
         <v>150</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
@@ -3846,122 +3798,122 @@
         <v>7</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
         <v>118</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -3979,21 +3931,21 @@
         <v>7</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4005,42 +3957,45 @@
         <v>7</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
       <c r="F57" t="s">
         <v>7</v>
       </c>
@@ -4048,155 +4003,170 @@
         <v>7</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" s="14">
+        <v>1</v>
+      </c>
+      <c r="P57" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O58" s="14">
+        <v>2</v>
+      </c>
+      <c r="P58" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J59" t="s">
+        <v>238</v>
+      </c>
+      <c r="O59" s="14">
+        <v>2</v>
+      </c>
+      <c r="P59" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
       <c r="H60" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O60" s="14">
+        <v>2</v>
+      </c>
+      <c r="P60" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O61" s="14">
+        <v>3</v>
+      </c>
+      <c r="P61" s="14">
         <v>1</v>
       </c>
-      <c r="P60" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J61" t="s">
-        <v>242</v>
-      </c>
-      <c r="O61" s="14">
-        <v>1</v>
-      </c>
-      <c r="P61" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -4211,34 +4181,31 @@
         <v>7</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="O62" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
       <c r="F63" t="s">
         <v>7</v>
       </c>
@@ -4246,97 +4213,94 @@
         <v>7</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O63" s="14">
+        <v>3</v>
+      </c>
+      <c r="P63" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O64" s="14">
+        <v>4</v>
+      </c>
+      <c r="P64" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="O63" s="14">
+      <c r="I65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O65" s="14">
+        <v>4</v>
+      </c>
+      <c r="P65" s="14">
         <v>2</v>
       </c>
-      <c r="P63" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="O64" s="14">
-        <v>2</v>
-      </c>
-      <c r="P64" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
-        <v>237</v>
-      </c>
-      <c r="C65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O65" s="14">
-        <v>1</v>
-      </c>
-      <c r="P65" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -4347,31 +4311,28 @@
       <c r="F66" t="s">
         <v>7</v>
       </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
       <c r="H66" s="7" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="O66" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -4382,31 +4343,28 @@
       <c r="F67" t="s">
         <v>7</v>
       </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="O67" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P67" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4417,275 +4375,314 @@
       <c r="F68" t="s">
         <v>7</v>
       </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
       <c r="H68" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="O68" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P68" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
-      <c r="G69" t="s">
-        <v>7</v>
-      </c>
       <c r="H69" s="7" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="O69" s="14">
         <v>5</v>
       </c>
       <c r="P69" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="14">
+        <v>1</v>
+      </c>
+      <c r="P70" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O71" s="14">
+        <v>2</v>
+      </c>
+      <c r="P71" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J72" t="s">
+        <v>221</v>
+      </c>
+      <c r="O72" s="14">
+        <v>2</v>
+      </c>
+      <c r="P72" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" t="s">
+        <v>240</v>
+      </c>
+      <c r="O73" s="14">
+        <v>2</v>
+      </c>
+      <c r="P73" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O70" s="14">
-        <v>4</v>
-      </c>
-      <c r="P70" s="14">
+      <c r="Q73">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O74" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="O71" s="14">
-        <v>5</v>
-      </c>
-      <c r="P71" s="14">
+      <c r="P74" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O75" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O72" s="14">
-        <v>5</v>
-      </c>
-      <c r="P72" s="14">
+      <c r="P75" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O76" s="14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="O73" s="14">
-        <v>4</v>
-      </c>
-      <c r="P73" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="O74" s="14">
-        <v>5</v>
-      </c>
-      <c r="P74" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="O75" s="14">
-        <v>4</v>
-      </c>
-      <c r="P75" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O76" s="14">
-        <v>5</v>
       </c>
       <c r="P76" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4693,75 +4690,255 @@
       <c r="F77" t="s">
         <v>7</v>
       </c>
-      <c r="G77" t="s">
-        <v>7</v>
-      </c>
       <c r="H77" s="7" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="O77" s="14">
+        <v>4</v>
+      </c>
+      <c r="P77" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O78" s="14">
+        <v>4</v>
+      </c>
+      <c r="P78" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O79" s="14">
+        <v>4</v>
+      </c>
+      <c r="P79" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O80" s="14">
+        <v>5</v>
+      </c>
+      <c r="P80" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
         <v>156</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O81" s="14">
+        <v>5</v>
+      </c>
+      <c r="P81" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>158</v>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O82" s="14">
+        <v>5</v>
+      </c>
+      <c r="P82" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="246">
   <si>
     <t>Schema</t>
   </si>
@@ -850,9 +850,6 @@
     <t>Materialien</t>
   </si>
   <si>
-    <t>OrderProduct_Material_Rsp</t>
-  </si>
-  <si>
     <t>Rows</t>
   </si>
   <si>
@@ -881,6 +878,15 @@
   </si>
   <si>
     <t>Settings/ProductMaterialRsps</t>
+  </si>
+  <si>
+    <t>Position_Material_Rsp</t>
+  </si>
+  <si>
+    <t>Postions</t>
+  </si>
+  <si>
+    <t>positionId</t>
   </si>
 </sst>
 </file>
@@ -1317,11 +1323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O6" t="s">
         <v>229</v>
@@ -1941,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O13" t="s">
         <v>231</v>
@@ -1953,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T13" t="s">
         <v>230</v>
@@ -2259,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2274,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s">
         <v>225</v>
@@ -2309,11 +2315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2394,7 @@
         <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4064,28 +4070,28 @@
         <v>225</v>
       </c>
       <c r="C59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" t="s">
         <v>237</v>
-      </c>
-      <c r="J59" t="s">
-        <v>238</v>
       </c>
       <c r="O59" s="14">
         <v>2</v>
@@ -4542,28 +4548,28 @@
         <v>217</v>
       </c>
       <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J73" t="s">
         <v>239</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J73" t="s">
-        <v>240</v>
       </c>
       <c r="O73" s="14">
         <v>2</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="263">
   <si>
     <t>Schema</t>
   </si>
@@ -887,6 +887,57 @@
   </si>
   <si>
     <t>positionId</t>
+  </si>
+  <si>
+    <t>JobPositions</t>
+  </si>
+  <si>
+    <t>Job position</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Dienststelle</t>
+  </si>
+  <si>
+    <t>Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>LastInspectionDate</t>
+  </si>
+  <si>
+    <t>Kennzeichen</t>
+  </si>
+  <si>
+    <t>Registration number</t>
+  </si>
+  <si>
+    <t>Letzte HU</t>
+  </si>
+  <si>
+    <t>Last inspection date</t>
+  </si>
+  <si>
+    <t>JobPositionId</t>
+  </si>
+  <si>
+    <t>AutoId</t>
+  </si>
+  <si>
+    <t>autos</t>
+  </si>
+  <si>
+    <t>Autos,JobPositions</t>
+  </si>
+  <si>
+    <t>jobPositions</t>
   </si>
 </sst>
 </file>
@@ -1321,13 +1372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,9 +1758,6 @@
       <c r="P7" t="s">
         <v>81</v>
       </c>
-      <c r="R7" t="s">
-        <v>7</v>
-      </c>
       <c r="AB7" s="14">
         <v>5</v>
       </c>
@@ -2295,6 +2343,147 @@
         <v>225</v>
       </c>
       <c r="AC22"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" t="s">
+        <v>247</v>
+      </c>
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="12" t="str">
+        <f t="shared" ref="AC23" si="3">O23</f>
+        <v>Dienststelle</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="12" t="str">
+        <f t="shared" ref="AC24" si="4">O24</f>
+        <v>Auto</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" t="s">
+        <v>251</v>
+      </c>
+      <c r="P25" t="s">
+        <v>252</v>
+      </c>
+      <c r="R25" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="12" t="str">
+        <f t="shared" ref="AC25" si="5">O25</f>
+        <v>Mitarbeiter</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P5">
@@ -2313,13 +2502,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,6 +5134,581 @@
       </c>
       <c r="I85" s="7" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O91" s="14">
+        <v>2</v>
+      </c>
+      <c r="P91" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" s="14">
+        <v>1</v>
+      </c>
+      <c r="P92" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O93" s="14">
+        <v>1</v>
+      </c>
+      <c r="P93" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J94" t="s">
+        <v>262</v>
+      </c>
+      <c r="O94" s="14">
+        <v>2</v>
+      </c>
+      <c r="P94" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J95" t="s">
+        <v>260</v>
+      </c>
+      <c r="O95" s="14">
+        <v>2</v>
+      </c>
+      <c r="P95" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O96" s="14">
+        <v>3</v>
+      </c>
+      <c r="P96" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O97" s="14">
+        <v>3</v>
+      </c>
+      <c r="P97" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O98" s="14">
+        <v>3</v>
+      </c>
+      <c r="P98" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+      <c r="O99" s="14">
+        <v>4</v>
+      </c>
+      <c r="P99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O100" s="14">
+        <v>4</v>
+      </c>
+      <c r="P100" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O101" s="14">
+        <v>5</v>
+      </c>
+      <c r="P101" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O102" s="14">
+        <v>4</v>
+      </c>
+      <c r="P102" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O103" s="14">
+        <v>5</v>
+      </c>
+      <c r="P103" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O104" s="14">
+        <v>5</v>
+      </c>
+      <c r="P104" s="14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="266">
   <si>
     <t>Schema</t>
   </si>
@@ -938,6 +938,15 @@
   </si>
   <si>
     <t>jobPositions</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Termin</t>
+  </si>
+  <si>
+    <t>Term</t>
   </si>
 </sst>
 </file>
@@ -1372,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,10 +2487,36 @@
         <v>17</v>
       </c>
       <c r="AC25" s="12" t="str">
-        <f t="shared" ref="AC25" si="5">O25</f>
+        <f t="shared" ref="AC25:AC26" si="5">O25</f>
         <v>Mitarbeiter</v>
       </c>
       <c r="AE25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>264</v>
+      </c>
+      <c r="P26" t="s">
+        <v>265</v>
+      </c>
+      <c r="R26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2504,11 +2539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -20,7 +20,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$P$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="269">
   <si>
     <t>Schema</t>
   </si>
@@ -947,6 +947,15 @@
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>Role,Employees</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1393,10 @@
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -2487,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="AC25" s="12" t="str">
-        <f t="shared" ref="AC25:AC26" si="5">O25</f>
+        <f t="shared" ref="AC25" si="5">O25</f>
         <v>Mitarbeiter</v>
       </c>
       <c r="AE25" t="s">
@@ -2537,13 +2546,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,9 +2878,6 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
       <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2887,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2905,10 +2911,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
+        <v>251</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2916,10 +2925,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2934,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2948,7 +2957,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2963,10 +2972,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2977,7 +2986,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2992,10 +3001,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -3006,7 +3015,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -3017,11 +3026,14 @@
       <c r="F15" t="s">
         <v>7</v>
       </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3032,7 +3044,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3044,10 +3056,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3058,7 +3070,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -3069,14 +3081,11 @@
       <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3084,10 +3093,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -3102,10 +3111,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3116,7 +3125,7 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -3131,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3145,7 +3154,7 @@
         <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -3160,10 +3169,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3171,10 +3180,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -3189,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3203,7 +3212,7 @@
         <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -3218,10 +3227,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3232,7 +3241,7 @@
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -3247,10 +3256,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3261,7 +3270,7 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3276,10 +3285,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3287,10 +3296,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -3305,16 +3314,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="14">
-        <v>1</v>
-      </c>
-      <c r="P25" s="14">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -3325,7 +3328,7 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -3340,13 +3343,13 @@
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="14">
         <v>1</v>
@@ -3360,7 +3363,7 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -3375,16 +3378,16 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="O27" s="14">
         <v>2</v>
       </c>
       <c r="P27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -3395,7 +3398,7 @@
         <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -3410,13 +3413,13 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="14">
         <v>2</v>
@@ -3430,7 +3433,7 @@
         <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -3445,16 +3448,16 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O29" s="14">
+        <v>1</v>
+      </c>
+      <c r="P29" s="14">
         <v>2</v>
-      </c>
-      <c r="P29" s="14">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -3465,7 +3468,7 @@
         <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -3476,17 +3479,20 @@
       <c r="F30" t="s">
         <v>7</v>
       </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" s="7" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O30" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P30" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -3497,25 +3503,28 @@
         <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O31" s="14">
         <v>6</v>
       </c>
       <c r="P31" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3526,28 +3535,25 @@
         <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
       <c r="F32" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O32" s="14">
         <v>6</v>
       </c>
       <c r="P32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3558,22 +3564,25 @@
         <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
       <c r="F33" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O33" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P33" s="14">
         <v>3</v>
@@ -3587,7 +3596,7 @@
         <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -3596,16 +3605,16 @@
         <v>7</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O34" s="14">
+        <v>1</v>
+      </c>
+      <c r="P34" s="14">
         <v>3</v>
-      </c>
-      <c r="P34" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3616,7 +3625,7 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -3625,16 +3634,16 @@
         <v>7</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O35" s="14">
         <v>3</v>
       </c>
       <c r="P35" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3645,7 +3654,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -3654,16 +3663,16 @@
         <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="14">
         <v>3</v>
       </c>
       <c r="P36" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3674,7 +3683,7 @@
         <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -3683,16 +3692,16 @@
         <v>7</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P37" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3703,7 +3712,7 @@
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -3712,16 +3721,16 @@
         <v>7</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P38" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3732,7 +3741,7 @@
         <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -3741,16 +3750,16 @@
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="14">
         <v>5</v>
       </c>
       <c r="P39" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3761,7 +3770,7 @@
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -3770,13 +3779,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="O40" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40" s="14">
         <v>1</v>
@@ -3790,7 +3799,7 @@
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -3799,16 +3808,16 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O41" s="14">
         <v>4</v>
       </c>
       <c r="P41" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -3819,7 +3828,7 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -3828,16 +3837,16 @@
         <v>7</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O42" s="14">
         <v>4</v>
       </c>
       <c r="P42" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3848,7 +3857,7 @@
         <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -3857,13 +3866,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="O43" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P43" s="14">
         <v>3</v>
@@ -3877,31 +3886,28 @@
         <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
       <c r="F44" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O44" s="14">
         <v>7</v>
       </c>
       <c r="P44" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3909,25 +3915,28 @@
         <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O45" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P45" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,48 +3947,48 @@
         <v>106</v>
       </c>
       <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O46" s="14">
+        <v>5</v>
+      </c>
+      <c r="P46" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>204</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3990,7 +3999,7 @@
         <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -4001,11 +4010,14 @@
       <c r="F48" t="s">
         <v>7</v>
       </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
       <c r="H48" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -4016,22 +4028,22 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
       <c r="F49" t="s">
         <v>7</v>
       </c>
-      <c r="G49" t="s">
-        <v>7</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -4042,22 +4054,22 @@
         <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
       <c r="F50" t="s">
         <v>7</v>
       </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="7" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4068,7 +4080,7 @@
         <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -4080,10 +4092,10 @@
         <v>7</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -4094,7 +4106,7 @@
         <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -4106,10 +4118,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -4120,7 +4132,7 @@
         <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -4132,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -4143,10 +4155,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -4157,14 +4169,11 @@
       <c r="F54" t="s">
         <v>7</v>
       </c>
-      <c r="G54" t="s">
-        <v>7</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4175,7 +4184,7 @@
         <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4186,11 +4195,14 @@
       <c r="F55" t="s">
         <v>7</v>
       </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
       <c r="H55" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -4201,13 +4213,22 @@
         <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,37 +4236,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O57" s="14">
-        <v>1</v>
-      </c>
-      <c r="P57" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>557</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -4271,13 +4271,13 @@
         <v>7</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O58" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" s="14">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -4309,22 +4309,19 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J59" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="O59" s="14">
         <v>2</v>
       </c>
       <c r="P59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4335,25 +4332,37 @@
         <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>122</v>
+        <v>236</v>
+      </c>
+      <c r="J60" t="s">
+        <v>237</v>
       </c>
       <c r="O60" s="14">
         <v>2</v>
       </c>
       <c r="P60" s="14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -4364,7 +4373,7 @@
         <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -4372,20 +4381,17 @@
       <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="O61" s="14">
+        <v>2</v>
+      </c>
+      <c r="P61" s="14">
         <v>3</v>
-      </c>
-      <c r="P61" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4396,14 +4402,11 @@
         <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
       <c r="F62" t="s">
         <v>7</v>
       </c>
@@ -4411,10 +4414,10 @@
         <v>7</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O62" s="14">
         <v>3</v>
@@ -4431,11 +4434,14 @@
         <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
       <c r="F63" t="s">
         <v>7</v>
       </c>
@@ -4443,10 +4449,10 @@
         <v>7</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O63" s="14">
         <v>3</v>
@@ -4463,32 +4469,29 @@
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
       <c r="H64" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="O64" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P64" s="14">
         <v>1</v>
       </c>
-      <c r="Q64">
-        <v>557</v>
-      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -4498,28 +4501,31 @@
         <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O65" s="14">
         <v>4</v>
       </c>
       <c r="P65" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4530,28 +4536,28 @@
         <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
       <c r="F66" t="s">
         <v>7</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O66" s="14">
         <v>4</v>
       </c>
       <c r="P66" s="14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4562,7 +4568,7 @@
         <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -4574,16 +4580,16 @@
         <v>7</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O67" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P67" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4594,7 +4600,7 @@
         <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4606,10 +4612,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O68" s="14">
         <v>5</v>
@@ -4626,7 +4632,7 @@
         <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -4638,10 +4644,10 @@
         <v>7</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O69" s="14">
         <v>5</v>
@@ -4655,10 +4661,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4669,24 +4675,18 @@
       <c r="F70" t="s">
         <v>7</v>
       </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
       <c r="H70" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="O70" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P70" s="14">
         <v>1</v>
       </c>
-      <c r="Q70">
-        <v>557</v>
-      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -4696,7 +4696,7 @@
         <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4711,13 +4711,13 @@
         <v>7</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O71" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" s="14">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4745,23 +4745,23 @@
       <c r="F72" t="s">
         <v>7</v>
       </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
       <c r="H72" s="7" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J72" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="O72" s="14">
         <v>2</v>
       </c>
       <c r="P72" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4783,23 +4783,20 @@
       <c r="F73" t="s">
         <v>7</v>
       </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="J73" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O73" s="14">
         <v>2</v>
       </c>
       <c r="P73" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q73">
         <v>370</v>
@@ -4813,11 +4810,14 @@
         <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
       <c r="F74" t="s">
         <v>7</v>
       </c>
@@ -4825,16 +4825,22 @@
         <v>7</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>169</v>
+        <v>236</v>
+      </c>
+      <c r="J74" t="s">
+        <v>239</v>
       </c>
       <c r="O74" s="14">
+        <v>2</v>
+      </c>
+      <c r="P74" s="14">
         <v>3</v>
       </c>
-      <c r="P74" s="14">
-        <v>1</v>
+      <c r="Q74">
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4845,14 +4851,11 @@
         <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
@@ -4860,10 +4863,10 @@
         <v>7</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O75" s="14">
         <v>3</v>
@@ -4880,11 +4883,14 @@
         <v>217</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
@@ -4892,10 +4898,10 @@
         <v>7</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O76" s="14">
         <v>3</v>
@@ -4912,7 +4918,7 @@
         <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4920,21 +4926,21 @@
       <c r="F77" t="s">
         <v>7</v>
       </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
       <c r="H77" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="O77" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P77" s="14">
         <v>1</v>
       </c>
-      <c r="Q77">
-        <v>557</v>
-      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -4944,7 +4950,7 @@
         <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4953,19 +4959,19 @@
         <v>7</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O78" s="14">
         <v>4</v>
       </c>
       <c r="P78" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4976,7 +4982,7 @@
         <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4985,16 +4991,19 @@
         <v>7</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="O79" s="14">
         <v>4</v>
       </c>
       <c r="P79" s="14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -5005,7 +5014,7 @@
         <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -5014,16 +5023,16 @@
         <v>7</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="O80" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P80" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5034,7 +5043,7 @@
         <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -5043,10 +5052,10 @@
         <v>7</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O81" s="14">
         <v>5</v>
@@ -5063,7 +5072,7 @@
         <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -5072,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O82" s="14">
         <v>5</v>
@@ -5089,10 +5098,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -5100,14 +5109,17 @@
       <c r="F83" t="s">
         <v>7</v>
       </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
       <c r="H83" s="7" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>219</v>
+        <v>157</v>
+      </c>
+      <c r="O83" s="14">
+        <v>5</v>
+      </c>
+      <c r="P83" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5118,14 +5130,11 @@
         <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
       <c r="F84" t="s">
         <v>7</v>
       </c>
@@ -5133,13 +5142,10 @@
         <v>7</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J84" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5150,7 +5156,7 @@
         <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -5165,10 +5171,13 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>152</v>
+        <v>229</v>
+      </c>
+      <c r="J85" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5176,10 +5185,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -5194,10 +5203,10 @@
         <v>7</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5208,7 +5217,7 @@
         <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -5219,11 +5228,14 @@
       <c r="F87" t="s">
         <v>7</v>
       </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I87" t="s">
-        <v>122</v>
+        <v>27</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5231,10 +5243,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -5245,14 +5257,11 @@
       <c r="F88" t="s">
         <v>7</v>
       </c>
-      <c r="G88" t="s">
-        <v>7</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>255</v>
+        <v>137</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5263,7 +5272,7 @@
         <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -5274,11 +5283,14 @@
       <c r="F89" t="s">
         <v>7</v>
       </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
       <c r="H89" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I89" t="s">
-        <v>122</v>
+        <v>254</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5289,7 +5301,7 @@
         <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -5301,10 +5313,10 @@
         <v>7</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>257</v>
+        <v>137</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5312,10 +5324,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -5326,20 +5338,11 @@
       <c r="F91" t="s">
         <v>7</v>
       </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
       <c r="H91" s="7" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O91" s="14">
-        <v>2</v>
-      </c>
-      <c r="P91" s="14">
-        <v>1</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5350,7 +5353,7 @@
         <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -5365,13 +5368,13 @@
         <v>7</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O92" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="14">
         <v>1</v>
@@ -5385,7 +5388,7 @@
         <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -5396,17 +5399,20 @@
       <c r="F93" t="s">
         <v>7</v>
       </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
       <c r="H93" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O93" s="14">
         <v>1</v>
       </c>
       <c r="P93" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5417,7 +5423,7 @@
         <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -5428,20 +5434,14 @@
       <c r="F94" t="s">
         <v>7</v>
       </c>
-      <c r="G94" t="s">
-        <v>7</v>
-      </c>
       <c r="H94" s="7" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J94" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="O94" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P94" s="14">
         <v>2</v>
@@ -5455,7 +5455,7 @@
         <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -5470,19 +5470,19 @@
         <v>7</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="J95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O95" s="14">
         <v>2</v>
       </c>
       <c r="P95" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5493,25 +5493,34 @@
         <v>249</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
       <c r="H96" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="J96" t="s">
+        <v>260</v>
       </c>
       <c r="O96" s="14">
+        <v>2</v>
+      </c>
+      <c r="P96" s="14">
         <v>3</v>
-      </c>
-      <c r="P96" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -5522,7 +5531,7 @@
         <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -5531,16 +5540,16 @@
         <v>7</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O97" s="14">
         <v>3</v>
       </c>
       <c r="P97" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5551,7 +5560,7 @@
         <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -5560,16 +5569,16 @@
         <v>7</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O98" s="14">
         <v>3</v>
       </c>
       <c r="P98" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5580,7 +5589,7 @@
         <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -5589,16 +5598,16 @@
         <v>7</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I99" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="O99" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P99" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5609,7 +5618,7 @@
         <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -5618,16 +5627,16 @@
         <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
+      </c>
+      <c r="I100" t="s">
+        <v>122</v>
       </c>
       <c r="O100" s="14">
         <v>4</v>
       </c>
       <c r="P100" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5638,7 +5647,7 @@
         <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -5647,16 +5656,16 @@
         <v>7</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O101" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P101" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -5667,7 +5676,7 @@
         <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -5676,16 +5685,16 @@
         <v>7</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O102" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P102" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5696,7 +5705,7 @@
         <v>249</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -5705,16 +5714,16 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O103" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P103" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -5725,7 +5734,7 @@
         <v>249</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -5734,20 +5743,49 @@
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O104" s="14">
         <v>5</v>
       </c>
       <c r="P104" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O105" s="14">
+        <v>5</v>
+      </c>
+      <c r="P105" s="14">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C10"/>
+  <autoFilter ref="A1:C11"/>
   <sortState ref="A2:N586">
     <sortCondition ref="B2:B586"/>
   </sortState>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="289">
   <si>
     <t>Schema</t>
   </si>
@@ -956,6 +956,66 @@
   </si>
   <si>
     <t>Role,Employees</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Artikelnummer</t>
+  </si>
+  <si>
+    <t>IsForAuto</t>
+  </si>
+  <si>
+    <t>Autobestand</t>
+  </si>
+  <si>
+    <t>For auto</t>
+  </si>
+  <si>
+    <t>WarehouseMaterials</t>
+  </si>
+  <si>
+    <t>Lager Material</t>
+  </si>
+  <si>
+    <t>Auto Material</t>
+  </si>
+  <si>
+    <t>Auto Instruments</t>
+  </si>
+  <si>
+    <t>MustCount</t>
+  </si>
+  <si>
+    <t>Soll-Menge</t>
+  </si>
+  <si>
+    <t>Must count</t>
+  </si>
+  <si>
+    <t>Auto_Material_Rsp</t>
+  </si>
+  <si>
+    <t>Auto_Instrument_Rsp</t>
+  </si>
+  <si>
+    <t>Settings/AutoMaterialRsps,Settings/AutoInstrumentRsps</t>
+  </si>
+  <si>
+    <t>materials,instruments</t>
+  </si>
+  <si>
+    <t>Materialien,Werkzeuge</t>
+  </si>
+  <si>
+    <t>Materials,Instruments</t>
   </si>
 </sst>
 </file>
@@ -1390,13 +1450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2432,6 +2492,9 @@
       <c r="J24" t="s">
         <v>7</v>
       </c>
+      <c r="N24" t="s">
+        <v>288</v>
+      </c>
       <c r="O24" t="s">
         <v>88</v>
       </c>
@@ -2440,6 +2503,18 @@
       </c>
       <c r="R24" t="s">
         <v>7</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="T24" t="s">
+        <v>286</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="W24" t="s">
         <v>109</v>
@@ -2527,6 +2602,123 @@
       </c>
       <c r="R26" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" t="s">
+        <v>270</v>
+      </c>
+      <c r="P27" t="s">
+        <v>270</v>
+      </c>
+      <c r="R27" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="12" t="str">
+        <f t="shared" ref="AC27" si="6">O27</f>
+        <v>Instrument</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" t="s">
+        <v>277</v>
+      </c>
+      <c r="P28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>278</v>
+      </c>
+      <c r="P29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2546,13 +2738,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4309,7 +4501,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>109</v>
@@ -4693,10 +4885,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4707,23 +4899,17 @@
       <c r="F71" t="s">
         <v>7</v>
       </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
       <c r="H71" s="7" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="O71" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P71" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>557</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4731,10 +4917,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4745,23 +4931,17 @@
       <c r="F72" t="s">
         <v>7</v>
       </c>
-      <c r="G72" t="s">
-        <v>7</v>
-      </c>
       <c r="H72" s="7" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="O72" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P72" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>557</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4772,7 +4952,7 @@
         <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4783,23 +4963,23 @@
       <c r="F73" t="s">
         <v>7</v>
       </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
       <c r="H73" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J73" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="O73" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P73" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4810,7 +4990,7 @@
         <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -4825,22 +5005,19 @@
         <v>7</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J74" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="O74" s="14">
         <v>2</v>
       </c>
       <c r="P74" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4851,28 +5028,34 @@
         <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
-      <c r="G75" t="s">
-        <v>7</v>
-      </c>
       <c r="H75" s="7" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="J75" t="s">
+        <v>221</v>
       </c>
       <c r="O75" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75" s="14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4883,7 +5066,7 @@
         <v>217</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -4898,16 +5081,22 @@
         <v>7</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>84</v>
+        <v>236</v>
+      </c>
+      <c r="J76" t="s">
+        <v>239</v>
       </c>
       <c r="O76" s="14">
+        <v>2</v>
+      </c>
+      <c r="P76" s="14">
         <v>3</v>
       </c>
-      <c r="P76" s="14">
-        <v>1</v>
+      <c r="Q76">
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4918,11 +5107,14 @@
         <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
       <c r="F77" t="s">
         <v>7</v>
       </c>
@@ -4930,10 +5122,10 @@
         <v>7</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O77" s="14">
         <v>3</v>
@@ -4950,7 +5142,7 @@
         <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4958,21 +5150,21 @@
       <c r="F78" t="s">
         <v>7</v>
       </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
       <c r="H78" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="O78" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P78" s="14">
         <v>1</v>
       </c>
-      <c r="Q78">
-        <v>557</v>
-      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -4982,7 +5174,7 @@
         <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4991,30 +5183,27 @@
         <v>7</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O79" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P79" s="14">
         <v>2</v>
       </c>
-      <c r="Q79">
-        <v>370</v>
-      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -5022,17 +5211,14 @@
       <c r="F80" t="s">
         <v>7</v>
       </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
       <c r="H80" s="7" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O80" s="14">
-        <v>4</v>
-      </c>
-      <c r="P80" s="14">
-        <v>3</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5040,28 +5226,31 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
       <c r="F81" t="s">
         <v>7</v>
       </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
       <c r="H81" s="7" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O81" s="14">
-        <v>5</v>
-      </c>
-      <c r="P81" s="14">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="J81" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5069,28 +5258,28 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
       <c r="F82" t="s">
         <v>7</v>
       </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
       <c r="H82" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="O82" s="14">
-        <v>5</v>
-      </c>
-      <c r="P82" s="14">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5098,28 +5287,28 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
       <c r="F83" t="s">
         <v>7</v>
       </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
       <c r="H83" s="7" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="O83" s="14">
-        <v>5</v>
-      </c>
-      <c r="P83" s="14">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5127,25 +5316,25 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
       <c r="F84" t="s">
         <v>7</v>
       </c>
-      <c r="G84" t="s">
-        <v>7</v>
-      </c>
       <c r="H84" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>219</v>
+        <v>137</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5153,10 +5342,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -5171,13 +5360,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J85" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5185,10 +5371,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -5199,14 +5385,11 @@
       <c r="F86" t="s">
         <v>7</v>
       </c>
-      <c r="G86" t="s">
-        <v>7</v>
-      </c>
       <c r="H86" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5214,10 +5397,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -5228,14 +5411,11 @@
       <c r="F87" t="s">
         <v>7</v>
       </c>
-      <c r="G87" t="s">
-        <v>7</v>
-      </c>
       <c r="H87" s="7" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5243,10 +5423,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -5257,11 +5437,20 @@
       <c r="F88" t="s">
         <v>7</v>
       </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
       <c r="H88" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I88" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O88" s="14">
+        <v>2</v>
+      </c>
+      <c r="P88" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5269,10 +5458,10 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -5287,10 +5476,16 @@
         <v>7</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>255</v>
+        <v>27</v>
+      </c>
+      <c r="O89" s="14">
+        <v>1</v>
+      </c>
+      <c r="P89" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5298,10 +5493,10 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -5313,10 +5508,16 @@
         <v>7</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I90" t="s">
-        <v>122</v>
+        <v>148</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O90" s="14">
+        <v>1</v>
+      </c>
+      <c r="P90" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5324,10 +5525,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -5338,11 +5539,23 @@
       <c r="F91" t="s">
         <v>7</v>
       </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="J91" t="s">
+        <v>262</v>
+      </c>
+      <c r="O91" s="14">
+        <v>2</v>
+      </c>
+      <c r="P91" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5353,7 +5566,7 @@
         <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -5364,20 +5577,20 @@
       <c r="F92" t="s">
         <v>7</v>
       </c>
-      <c r="G92" t="s">
-        <v>7</v>
-      </c>
       <c r="H92" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
+      </c>
+      <c r="J92" t="s">
+        <v>260</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
       </c>
       <c r="P92" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5388,28 +5601,22 @@
         <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
-      <c r="G93" t="s">
-        <v>7</v>
-      </c>
       <c r="H93" s="7" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O93" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P93" s="14">
         <v>1</v>
@@ -5423,25 +5630,22 @@
         <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="O94" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94" s="14">
         <v>2</v>
@@ -5455,34 +5659,25 @@
         <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
       <c r="F95" t="s">
         <v>7</v>
       </c>
-      <c r="G95" t="s">
-        <v>7</v>
-      </c>
       <c r="H95" s="7" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J95" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="O95" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P95" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5493,34 +5688,25 @@
         <v>249</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
-      <c r="G96" t="s">
-        <v>7</v>
-      </c>
       <c r="H96" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J96" t="s">
-        <v>260</v>
+        <v>137</v>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
       </c>
       <c r="O96" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P96" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -5531,7 +5717,7 @@
         <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -5540,16 +5726,16 @@
         <v>7</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O97" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P97" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5560,7 +5746,7 @@
         <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -5569,16 +5755,16 @@
         <v>7</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O98" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P98" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5589,7 +5775,7 @@
         <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -5598,13 +5784,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O99" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P99" s="14">
         <v>3</v>
@@ -5618,7 +5804,7 @@
         <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -5627,16 +5813,16 @@
         <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I100" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="O100" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P100" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5647,7 +5833,7 @@
         <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -5656,16 +5842,16 @@
         <v>7</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O101" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P101" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -5673,28 +5859,28 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
       <c r="F102" t="s">
         <v>7</v>
       </c>
+      <c r="G102" t="s">
+        <v>7</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O102" s="14">
-        <v>5</v>
-      </c>
-      <c r="P102" s="14">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5702,28 +5888,28 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O103" s="14">
-        <v>4</v>
-      </c>
-      <c r="P103" s="14">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -5731,28 +5917,25 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
       <c r="F104" t="s">
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O104" s="14">
-        <v>5</v>
-      </c>
-      <c r="P104" s="14">
-        <v>2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5760,28 +5943,83 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
       <c r="F105" t="s">
         <v>7</v>
       </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O105" s="14">
-        <v>5</v>
-      </c>
-      <c r="P105" s="14">
-        <v>3</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5831,13 +6069,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5877,6 +6115,17 @@
         <v>154</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="289">
   <si>
     <t>Schema</t>
   </si>
@@ -1452,11 +1452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,9 +2631,6 @@
       </c>
       <c r="P27" t="s">
         <v>270</v>
-      </c>
-      <c r="R27" t="s">
-        <v>7</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -6071,11 +6068,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="292">
   <si>
     <t>Schema</t>
   </si>
@@ -1016,6 +1016,15 @@
   </si>
   <si>
     <t>Materials,Instruments</t>
+  </si>
+  <si>
+    <t>TermPositions</t>
+  </si>
+  <si>
+    <t>Term posiiton</t>
+  </si>
+  <si>
+    <t>Termin Position</t>
   </si>
 </sst>
 </file>
@@ -1450,13 +1459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,6 +2725,32 @@
       </c>
       <c r="P30" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>291</v>
+      </c>
+      <c r="P31" t="s">
+        <v>290</v>
+      </c>
+      <c r="R31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="295">
   <si>
     <t>Schema</t>
   </si>
@@ -1025,6 +1025,15 @@
   </si>
   <si>
     <t>Termin Position</t>
+  </si>
+  <si>
+    <t>TermInstruments</t>
+  </si>
+  <si>
+    <t>Term Instrument</t>
+  </si>
+  <si>
+    <t>Termin Werkzeug</t>
   </si>
 </sst>
 </file>
@@ -1459,13 +1468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,6 +2759,32 @@
         <v>290</v>
       </c>
       <c r="R31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P32" t="s">
+        <v>293</v>
+      </c>
+      <c r="R32" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="295">
   <si>
     <t>Schema</t>
   </si>
@@ -1470,11 +1470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,11 +2807,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,9 +5337,6 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="7" t="s">

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="298">
   <si>
     <t>Schema</t>
   </si>
@@ -1034,6 +1034,15 @@
   </si>
   <si>
     <t>Termin Werkzeug</t>
+  </si>
+  <si>
+    <t>DeliveryNoteSignatures</t>
+  </si>
+  <si>
+    <t>Delivery Note Signatures</t>
+  </si>
+  <si>
+    <t>Lieferschein Unterschrift</t>
   </si>
 </sst>
 </file>
@@ -1468,13 +1477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,6 +2797,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>297</v>
+      </c>
+      <c r="P33" t="s">
+        <v>296</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P5">
     <sortState ref="A2:K98">
@@ -2807,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -604,9 +604,6 @@
     <t>CustomerId</t>
   </si>
   <si>
-    <t>Bauart</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -1043,6 +1040,9 @@
   </si>
   <si>
     <t>Lieferschein Unterschrift</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1480,10 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
         <v>57</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>65</v>
@@ -1605,7 +1605,7 @@
         <v>67</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1807,13 +1807,13 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
@@ -2041,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -2059,10 +2059,10 @@
         <v>7</v>
       </c>
       <c r="O12" t="s">
+        <v>214</v>
+      </c>
+      <c r="P12" t="s">
         <v>215</v>
-      </c>
-      <c r="P12" t="s">
-        <v>216</v>
       </c>
       <c r="R12" t="s">
         <v>7</v>
@@ -2077,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="AC12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE12" t="s">
         <v>7</v>
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -2100,28 +2100,28 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
+        <v>240</v>
+      </c>
+      <c r="O13" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="O13" t="s">
+      <c r="T13" t="s">
+        <v>229</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P13" t="s">
-        <v>219</v>
-      </c>
-      <c r="R13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="T13" t="s">
-        <v>230</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="V13" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -2135,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="AC13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE13" t="s">
         <v>7</v>
@@ -2146,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2161,19 +2161,19 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC14"/>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -2194,10 +2194,10 @@
         <v>7</v>
       </c>
       <c r="O15" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" t="s">
         <v>173</v>
-      </c>
-      <c r="P15" t="s">
-        <v>174</v>
       </c>
       <c r="R15" t="s">
         <v>7</v>
@@ -2208,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="AC15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2231,16 +2231,16 @@
         <v>7</v>
       </c>
       <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
         <v>176</v>
       </c>
-      <c r="M16" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" t="s">
-        <v>177</v>
-      </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC16"/>
     </row>
@@ -2249,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2258,31 +2258,31 @@
         <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R17" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="T17" t="s">
         <v>186</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="V17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB17" s="14">
         <v>12</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s">
         <v>7</v>
@@ -2293,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2305,16 +2305,16 @@
         <v>7</v>
       </c>
       <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
         <v>183</v>
       </c>
-      <c r="M18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>184</v>
-      </c>
-      <c r="P18" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2331,10 +2331,10 @@
         <v>55</v>
       </c>
       <c r="O19" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" t="s">
         <v>190</v>
-      </c>
-      <c r="P19" t="s">
-        <v>191</v>
       </c>
       <c r="R19" t="s">
         <v>7</v>
@@ -2343,7 +2343,7 @@
         <v>13</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2363,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="O20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R20" t="s">
         <v>7</v>
@@ -2377,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="AC20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2400,16 +2400,16 @@
         <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC21"/>
     </row>
@@ -2418,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2433,19 +2433,19 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC22"/>
     </row>
@@ -2454,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2472,10 +2472,10 @@
         <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
@@ -2502,7 +2502,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O24" t="s">
         <v>88</v>
@@ -2532,16 +2532,16 @@
         <v>7</v>
       </c>
       <c r="S24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="T24" t="s">
         <v>285</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="V24" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="W24" t="s">
         <v>109</v>
@@ -2565,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2577,13 +2577,13 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" t="s">
         <v>251</v>
-      </c>
-      <c r="P25" t="s">
-        <v>252</v>
       </c>
       <c r="R25" t="s">
         <v>7</v>
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2622,10 +2622,10 @@
         <v>7</v>
       </c>
       <c r="O26" t="s">
+        <v>263</v>
+      </c>
+      <c r="P26" t="s">
         <v>264</v>
-      </c>
-      <c r="P26" t="s">
-        <v>265</v>
       </c>
       <c r="R26" t="s">
         <v>7</v>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2654,10 +2654,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="AC27" s="12" t="str">
         <f t="shared" ref="AC27" si="6">O27</f>
-        <v>Instrument</v>
+        <v>Werkzeug</v>
       </c>
       <c r="AE27" t="s">
         <v>7</v>
@@ -2681,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2693,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2716,10 +2716,10 @@
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2739,10 +2739,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2762,10 +2762,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R31" t="s">
         <v>7</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2788,10 +2788,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R32" t="s">
         <v>7</v>
@@ -2802,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2814,10 +2814,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -2843,10 +2843,10 @@
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2921,7 @@
         <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3190,28 +3190,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" t="s">
         <v>266</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>131</v>
@@ -3838,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>133</v>
@@ -3870,7 +3870,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>132</v>
@@ -4093,7 +4093,7 @@
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -4102,10 +4102,10 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O41" s="14">
         <v>4</v>
@@ -4122,7 +4122,7 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -4131,10 +4131,10 @@
         <v>7</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="O42" s="14">
         <v>4</v>
@@ -4151,7 +4151,7 @@
         <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -4160,10 +4160,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O43" s="14">
         <v>4</v>
@@ -4221,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>134</v>
@@ -4270,19 +4270,19 @@
         <v>106</v>
       </c>
       <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4475,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -4493,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>27</v>
@@ -4504,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
         <v>122</v>
@@ -4530,16 +4530,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="I57" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -4565,7 +4565,7 @@
         <v>7</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>27</v>
@@ -4585,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
         <v>109</v>
@@ -4603,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>109</v>
@@ -4623,31 +4623,31 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" t="s">
         <v>236</v>
-      </c>
-      <c r="J60" t="s">
-        <v>237</v>
       </c>
       <c r="O60" s="14">
         <v>2</v>
@@ -4664,7 +4664,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
@@ -4693,10 +4693,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -4708,10 +4708,10 @@
         <v>7</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O62" s="14">
         <v>3</v>
@@ -4725,7 +4725,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
         <v>86</v>
@@ -4792,10 +4792,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -4807,10 +4807,10 @@
         <v>7</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O65" s="14">
         <v>4</v>
@@ -4827,10 +4827,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O66" s="14">
         <v>4</v>
@@ -4859,10 +4859,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -4874,10 +4874,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="O67" s="14">
         <v>4</v>
@@ -4891,10 +4891,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4906,10 +4906,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O68" s="14">
         <v>5</v>
@@ -4923,10 +4923,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -4938,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O69" s="14">
         <v>5</v>
@@ -4955,10 +4955,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4970,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O70" s="14">
         <v>5</v>
@@ -4987,25 +4987,25 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="O71" s="14">
         <v>5</v>
@@ -5019,25 +5019,25 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5051,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>27</v>
@@ -5089,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
         <v>109</v>
@@ -5127,28 +5127,28 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J75" t="s">
         <v>220</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J75" t="s">
-        <v>221</v>
       </c>
       <c r="O75" s="14">
         <v>2</v>
@@ -5165,31 +5165,31 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J76" t="s">
         <v>238</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J76" t="s">
-        <v>239</v>
       </c>
       <c r="O76" s="14">
         <v>2</v>
@@ -5206,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -5241,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
         <v>86</v>
@@ -5273,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
         <v>122</v>
@@ -5302,10 +5302,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -5317,10 +5317,10 @@
         <v>7</v>
       </c>
       <c r="H80" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5328,11 +5328,11 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" t="s">
         <v>226</v>
       </c>
-      <c r="C81" t="s">
-        <v>227</v>
-      </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
@@ -5346,13 +5346,13 @@
         <v>7</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J81" t="s">
         <v>229</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J81" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5360,25 +5360,25 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="I82" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5386,7 +5386,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -5415,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
         <v>122</v>
@@ -5441,7 +5441,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -5459,10 +5459,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
         <v>122</v>
@@ -5496,10 +5496,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -5511,10 +5511,10 @@
         <v>7</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -5557,7 +5557,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -5592,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
         <v>147</v>
@@ -5624,31 +5624,31 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C91" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="I91" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="14">
         <v>2</v>
@@ -5662,10 +5662,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -5683,7 +5683,7 @@
         <v>88</v>
       </c>
       <c r="J92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
         <v>110</v>
@@ -5726,7 +5726,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
         <v>111</v>
@@ -5755,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
         <v>129</v>
@@ -5784,7 +5784,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -5813,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
         <v>115</v>
@@ -5842,7 +5842,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
         <v>116</v>
@@ -5871,7 +5871,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
         <v>117</v>
@@ -5900,7 +5900,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
         <v>119</v>
@@ -5958,7 +5958,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>27</v>
@@ -5987,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
         <v>109</v>
@@ -6016,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
         <v>122</v>
@@ -6042,10 +6042,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -6060,10 +6060,10 @@
         <v>7</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -6071,7 +6071,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
         <v>86</v>
@@ -6100,25 +6100,25 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6211,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="299">
   <si>
     <t>Schema</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>IsColorElement</t>
   </si>
 </sst>
 </file>
@@ -1479,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,6 +2597,9 @@
       <c r="X25" t="s">
         <v>7</v>
       </c>
+      <c r="Y25" t="s">
+        <v>7</v>
+      </c>
       <c r="AB25" s="14">
         <v>17</v>
       </c>
@@ -2840,13 +2846,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2871,7 @@
     <col min="15" max="16" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2923,8 +2929,11 @@
       <c r="S1" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3098,7 +3107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3301,7 +3310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3330,7 +3339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -5866,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -5895,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -5953,22 +5962,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
       <c r="F102" t="s">
         <v>7</v>
       </c>
@@ -5976,13 +5982,22 @@
         <v>7</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="O102" s="14">
+        <v>1</v>
+      </c>
+      <c r="P102" s="14">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -5990,7 +6005,7 @@
         <v>268</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -6005,13 +6020,13 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -6019,7 +6034,7 @@
         <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -6030,14 +6045,17 @@
       <c r="F104" t="s">
         <v>7</v>
       </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -6045,7 +6063,7 @@
         <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -6056,17 +6074,14 @@
       <c r="F105" t="s">
         <v>7</v>
       </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
       <c r="H105" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -6074,7 +6089,7 @@
         <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -6089,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -6103,21 +6118,50 @@
         <v>268</v>
       </c>
       <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
         <v>272</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" s="7" t="s">
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>274</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="299">
   <si>
     <t>Schema</t>
   </si>
@@ -1482,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,6 +1827,12 @@
       <c r="X6" t="s">
         <v>7</v>
       </c>
+      <c r="Z6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB6" s="14">
         <v>4</v>
       </c>
@@ -2848,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J92" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T102" sqref="T102"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="299">
   <si>
     <t>Schema</t>
   </si>
@@ -871,9 +871,6 @@
     <t>MaterialAmountTypes</t>
   </si>
   <si>
-    <t>Materials,ProductTypes,ProductAmountTypes</t>
-  </si>
-  <si>
     <t>Settings/ProductMaterialRsps</t>
   </si>
   <si>
@@ -1046,6 +1043,9 @@
   </si>
   <si>
     <t>IsColorElement</t>
+  </si>
+  <si>
+    <t>ProductTypes,ProductAmountTypes</t>
   </si>
 </sst>
 </file>
@@ -1482,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="O13" t="s">
         <v>230</v>
@@ -2121,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T13" t="s">
         <v>229</v>
@@ -2183,6 +2183,15 @@
       </c>
       <c r="P14" t="s">
         <v>224</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>7</v>
       </c>
       <c r="AC14"/>
     </row>
@@ -2427,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2442,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s">
         <v>224</v>
@@ -2463,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2481,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
@@ -2511,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2529,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O24" t="s">
         <v>88</v>
@@ -2541,16 +2550,16 @@
         <v>7</v>
       </c>
       <c r="S24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="T24" t="s">
         <v>284</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="V24" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="W24" t="s">
         <v>109</v>
@@ -2574,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2586,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
+        <v>249</v>
+      </c>
+      <c r="P25" t="s">
         <v>250</v>
-      </c>
-      <c r="P25" t="s">
-        <v>251</v>
       </c>
       <c r="R25" t="s">
         <v>7</v>
@@ -2622,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2634,10 +2643,10 @@
         <v>7</v>
       </c>
       <c r="O26" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" t="s">
         <v>263</v>
-      </c>
-      <c r="P26" t="s">
-        <v>264</v>
       </c>
       <c r="R26" t="s">
         <v>7</v>
@@ -2648,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2666,10 +2675,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -2693,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2705,10 +2714,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -2716,7 +2725,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2728,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -2739,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2751,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -2762,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2774,10 +2783,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R31" t="s">
         <v>7</v>
@@ -2788,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2800,10 +2809,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R32" t="s">
         <v>7</v>
@@ -2814,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2826,10 +2835,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -2854,11 +2863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2945,7 @@
         <v>232</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3205,28 +3214,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
         <v>265</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4618,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>109</v>
@@ -5005,22 +5014,22 @@
         <v>224</v>
       </c>
       <c r="C71" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="O71" s="14">
         <v>5</v>
@@ -5037,22 +5046,22 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5351,12 +5360,6 @@
       <c r="D81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
       <c r="G81" t="s">
         <v>7</v>
       </c>
@@ -5366,9 +5369,6 @@
       <c r="I81" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J81" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -5401,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -5430,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
         <v>122</v>
@@ -5456,7 +5456,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -5474,10 +5474,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
         <v>122</v>
@@ -5511,10 +5511,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -5526,10 +5526,10 @@
         <v>7</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -5572,7 +5572,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -5607,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
         <v>147</v>
@@ -5639,31 +5639,31 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C91" t="s">
-        <v>257</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="I91" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="14">
         <v>2</v>
@@ -5677,10 +5677,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -5698,7 +5698,7 @@
         <v>88</v>
       </c>
       <c r="J92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -5712,7 +5712,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
         <v>110</v>
@@ -5741,7 +5741,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
         <v>111</v>
@@ -5770,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
         <v>129</v>
@@ -5799,7 +5799,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -5828,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s">
         <v>115</v>
@@ -5857,7 +5857,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
         <v>116</v>
@@ -5886,7 +5886,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>117</v>
@@ -5915,7 +5915,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
@@ -5944,7 +5944,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s">
         <v>119</v>
@@ -5973,7 +5973,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C102" t="s">
         <v>157</v>
@@ -6008,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -6026,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>27</v>
@@ -6037,7 +6037,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
         <v>109</v>
@@ -6066,7 +6066,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
         <v>122</v>
@@ -6092,7 +6092,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
         <v>160</v>
@@ -6121,7 +6121,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
         <v>86</v>
@@ -6150,25 +6150,25 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6218,13 +6218,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,9 +6272,20 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6331,7 +6342,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="302">
   <si>
     <t>Schema</t>
   </si>
@@ -1046,6 +1046,15 @@
   </si>
   <si>
     <t>ProductTypes,ProductAmountTypes</t>
+  </si>
+  <si>
+    <t>TermEmployees</t>
+  </si>
+  <si>
+    <t>Termin Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Term employee</t>
   </si>
 </sst>
 </file>
@@ -1480,13 +1489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,9 +2184,6 @@
       <c r="M14" t="s">
         <v>216</v>
       </c>
-      <c r="N14" t="s">
-        <v>224</v>
-      </c>
       <c r="O14" t="s">
         <v>231</v>
       </c>
@@ -2456,9 +2462,6 @@
       <c r="M22" t="s">
         <v>242</v>
       </c>
-      <c r="N22" t="s">
-        <v>224</v>
-      </c>
       <c r="O22" t="s">
         <v>231</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s">
         <v>88</v>
@@ -2742,6 +2745,15 @@
       <c r="P29" t="s">
         <v>276</v>
       </c>
+      <c r="Y29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2823,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2835,12 +2847,38 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
+        <v>300</v>
+      </c>
+      <c r="P33" t="s">
+        <v>301</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" t="s">
         <v>295</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" t="s">
         <v>294</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2863,11 +2901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109:XFD109"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="303">
   <si>
     <t>Schema</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t>Term employee</t>
+  </si>
+  <si>
+    <t>CustomViewModelPropeties</t>
   </si>
 </sst>
 </file>
@@ -1489,13 +1492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,11 +1524,11 @@
     <col min="22" max="22" width="19" style="7" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="14"/>
-    <col min="29" max="29" width="32" style="12" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="14"/>
+    <col min="30" max="30" width="32" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1607,20 +1610,23 @@
       <c r="AA1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1651,18 +1657,18 @@
       <c r="X2" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AC2" s="14">
         <v>1</v>
       </c>
-      <c r="AC2" s="12" t="str">
-        <f t="shared" ref="AC2:AC5" si="0">O2</f>
+      <c r="AD2" s="12" t="str">
+        <f t="shared" ref="AD2:AD5" si="0">O2</f>
         <v>Berechtigung</v>
       </c>
-      <c r="AE2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1714,18 +1720,18 @@
       <c r="X3" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AC3" s="14">
         <v>2</v>
       </c>
-      <c r="AC3" s="12" t="str">
+      <c r="AD3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Rolle</v>
       </c>
-      <c r="AE3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1791,18 +1797,18 @@
       <c r="Z5" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AC5" s="14">
         <v>3</v>
       </c>
-      <c r="AC5" s="12" t="str">
+      <c r="AD5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Benutzer</v>
       </c>
-      <c r="AE5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1842,18 +1848,18 @@
       <c r="AA6" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AC6" s="14">
         <v>4</v>
       </c>
-      <c r="AC6" s="12" t="str">
-        <f t="shared" ref="AC6" si="1">O6</f>
+      <c r="AD6" s="12" t="str">
+        <f t="shared" ref="AD6" si="1">O6</f>
         <v>Material</v>
       </c>
-      <c r="AE6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1881,18 +1887,18 @@
       <c r="P7" t="s">
         <v>81</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AC7" s="14">
         <v>5</v>
       </c>
-      <c r="AC7" s="12" t="str">
-        <f t="shared" ref="AC7" si="2">O7</f>
+      <c r="AD7" s="12" t="str">
+        <f t="shared" ref="AD7" si="2">O7</f>
         <v>Nebenkosten</v>
       </c>
-      <c r="AE7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1923,14 +1929,14 @@
       <c r="R8" t="s">
         <v>7</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AC8" s="14">
         <v>6</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AD8" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1967,17 +1973,17 @@
       <c r="X9" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="14">
-        <v>7</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="s">
         <v>105</v>
       </c>
-      <c r="AE9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2014,14 +2020,14 @@
       <c r="V10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <v>8</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2052,9 +2058,9 @@
       <c r="P11" t="s">
         <v>142</v>
       </c>
-      <c r="AC11"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2091,17 +2097,17 @@
       <c r="X12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AC12" s="14">
         <v>9</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>214</v>
       </c>
-      <c r="AE12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2149,17 +2155,17 @@
       <c r="AA13" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AC13" s="14">
         <v>10</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>230</v>
       </c>
-      <c r="AE13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2199,9 +2205,12 @@
       <c r="AA14" t="s">
         <v>7</v>
       </c>
-      <c r="AC14"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="AB15" s="14">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2266,9 +2275,9 @@
       <c r="P16" t="s">
         <v>176</v>
       </c>
-      <c r="AC16"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2302,17 +2311,17 @@
       <c r="V17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AC17" s="14">
         <v>12</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AD17" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AE17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2363,14 +2372,14 @@
       <c r="R19" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="14">
+      <c r="AC19" s="14">
         <v>13</v>
       </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AD19" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2397,14 +2406,14 @@
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="AB20" s="14">
+      <c r="AC20" s="14">
         <v>14</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2435,9 +2444,9 @@
       <c r="P21" t="s">
         <v>195</v>
       </c>
-      <c r="AC21"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2468,9 +2477,9 @@
       <c r="P22" t="s">
         <v>224</v>
       </c>
-      <c r="AC22"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2507,18 +2516,18 @@
       <c r="X23" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AC23" s="14">
         <v>15</v>
       </c>
-      <c r="AC23" s="12" t="str">
-        <f t="shared" ref="AC23" si="3">O23</f>
+      <c r="AD23" s="12" t="str">
+        <f t="shared" ref="AD23" si="3">O23</f>
         <v>Dienststelle</v>
       </c>
-      <c r="AE23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2570,18 +2579,18 @@
       <c r="X24" t="s">
         <v>7</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AC24" s="14">
         <v>16</v>
       </c>
-      <c r="AC24" s="12" t="str">
-        <f t="shared" ref="AC24" si="4">O24</f>
+      <c r="AD24" s="12" t="str">
+        <f t="shared" ref="AD24" si="4">O24</f>
         <v>Auto</v>
       </c>
-      <c r="AE24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2618,18 +2627,18 @@
       <c r="Y25" t="s">
         <v>7</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AC25" s="14">
         <v>17</v>
       </c>
-      <c r="AC25" s="12" t="str">
-        <f t="shared" ref="AC25" si="5">O25</f>
+      <c r="AD25" s="12" t="str">
+        <f t="shared" ref="AD25" si="5">O25</f>
         <v>Mitarbeiter</v>
       </c>
-      <c r="AE25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2689,18 +2698,18 @@
       <c r="X27" t="s">
         <v>7</v>
       </c>
-      <c r="AB27" s="14">
+      <c r="AC27" s="14">
         <v>18</v>
       </c>
-      <c r="AC27" s="12" t="str">
-        <f t="shared" ref="AC27" si="6">O27</f>
+      <c r="AD27" s="12" t="str">
+        <f t="shared" ref="AD27" si="6">O27</f>
         <v>Werkzeug</v>
       </c>
-      <c r="AE27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2755,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +2813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -874,15 +874,6 @@
     <t>Settings/ProductMaterialRsps</t>
   </si>
   <si>
-    <t>Position_Material_Rsp</t>
-  </si>
-  <si>
-    <t>Postions</t>
-  </si>
-  <si>
-    <t>positionId</t>
-  </si>
-  <si>
     <t>JobPositions</t>
   </si>
   <si>
@@ -1058,6 +1049,15 @@
   </si>
   <si>
     <t>CustomViewModelPropeties</t>
+  </si>
+  <si>
+    <t>TermPosition_Material_Rsp</t>
+  </si>
+  <si>
+    <t>TermPostions</t>
+  </si>
+  <si>
+    <t>termPositionId</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1495,10 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,7 @@
         <v>212</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>65</v>
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O13" t="s">
         <v>230</v>
@@ -2451,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2466,10 +2466,10 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="O22" t="s">
         <v>231</v>
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2502,10 +2502,10 @@
         <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
@@ -2532,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2550,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
         <v>88</v>
@@ -2562,16 +2562,16 @@
         <v>7</v>
       </c>
       <c r="S24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="T24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="V24" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="T24" t="s">
-        <v>284</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="W24" t="s">
         <v>109</v>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2607,13 +2607,13 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R25" t="s">
         <v>7</v>
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2655,10 +2655,10 @@
         <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R26" t="s">
         <v>7</v>
@@ -2669,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2687,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -2714,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2726,10 +2726,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2749,10 +2749,10 @@
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s">
         <v>7</v>
@@ -2769,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2781,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2804,10 +2804,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="R31" t="s">
         <v>7</v>
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2830,10 +2830,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R32" t="s">
         <v>7</v>
@@ -2844,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2856,10 +2856,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -2870,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -2882,10 +2882,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -2992,7 +2992,7 @@
         <v>232</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3276,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4674,7 +4674,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>109</v>
@@ -5061,7 +5061,7 @@
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -5073,10 +5073,10 @@
         <v>7</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O71" s="14">
         <v>5</v>
@@ -5093,7 +5093,7 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -5105,10 +5105,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5448,7 +5448,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -5477,7 +5477,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
         <v>122</v>
@@ -5503,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -5521,10 +5521,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
         <v>122</v>
@@ -5558,25 +5558,25 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="I87" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
@@ -5619,7 +5619,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -5654,7 +5654,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
         <v>147</v>
@@ -5686,10 +5686,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -5704,13 +5704,13 @@
         <v>7</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O91" s="14">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -5745,7 +5745,7 @@
         <v>88</v>
       </c>
       <c r="J92" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -5759,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
         <v>110</v>
@@ -5788,7 +5788,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
         <v>111</v>
@@ -5817,7 +5817,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
         <v>129</v>
@@ -5846,7 +5846,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
         <v>122</v>
@@ -5875,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
         <v>115</v>
@@ -5904,7 +5904,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
         <v>116</v>
@@ -5933,7 +5933,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
         <v>117</v>
@@ -5962,7 +5962,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
@@ -5991,7 +5991,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
         <v>119</v>
@@ -6020,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
         <v>157</v>
@@ -6055,7 +6055,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>27</v>
@@ -6084,7 +6084,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
         <v>109</v>
@@ -6113,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
         <v>122</v>
@@ -6139,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
         <v>160</v>
@@ -6168,7 +6168,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
         <v>86</v>
@@ -6197,10 +6197,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -6212,10 +6212,10 @@
         <v>7</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6319,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="306">
   <si>
     <t>Schema</t>
   </si>
@@ -1058,6 +1058,15 @@
   </si>
   <si>
     <t>termPositionId</t>
+  </si>
+  <si>
+    <t>SearchPositionView</t>
+  </si>
+  <si>
+    <t>Leistungen Suche</t>
+  </si>
+  <si>
+    <t>Position search</t>
   </si>
 </sst>
 </file>
@@ -1492,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,6 +2898,26 @@
       </c>
       <c r="R34" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="306">
   <si>
     <t>Schema</t>
   </si>
@@ -1503,11 +1503,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,6 +2707,12 @@
       <c r="X27" t="s">
         <v>7</v>
       </c>
+      <c r="Y27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>7</v>
+      </c>
       <c r="AC27" s="14">
         <v>18</v>
       </c>
@@ -2940,7 +2946,7 @@
   <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
@@ -6294,13 +6300,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,6 +6368,17 @@
         <v>225</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="309">
   <si>
     <t>Schema</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>IncludeInFirstBill</t>
-  </si>
-  <si>
     <t>ProceedsAccount</t>
   </si>
   <si>
@@ -418,12 +415,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>auf erster Rechnung</t>
-  </si>
-  <si>
-    <t>first bill</t>
-  </si>
-  <si>
     <t>Erlös-Konto</t>
   </si>
   <si>
@@ -1067,6 +1058,24 @@
   </si>
   <si>
     <t>Position search</t>
+  </si>
+  <si>
+    <t>AdditionalCostTypes</t>
+  </si>
+  <si>
+    <t>Nebenkostenarten</t>
+  </si>
+  <si>
+    <t>Additional cost type</t>
+  </si>
+  <si>
+    <t>AdditionalCostTypeId</t>
+  </si>
+  <si>
+    <t>Nebenkostenart</t>
+  </si>
+  <si>
+    <t>additionalCostTypes</t>
   </si>
 </sst>
 </file>
@@ -1501,13 +1510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:B27"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,10 +1626,10 @@
         <v>57</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>65</v>
@@ -1632,7 +1641,7 @@
         <v>67</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -1822,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1834,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
@@ -1861,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="AD6" s="12" t="str">
-        <f t="shared" ref="AD6" si="1">O6</f>
+        <f t="shared" ref="AD6:AD7" si="1">O6</f>
         <v>Material</v>
       </c>
       <c r="AF6" t="s">
@@ -1873,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1891,17 +1900,26 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>305</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
+        <v>7</v>
       </c>
       <c r="AC7" s="14">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="12" t="str">
-        <f t="shared" ref="AD7" si="2">O7</f>
-        <v>Nebenkosten</v>
+        <f t="shared" si="1"/>
+        <v>Nebenkostenarten</v>
       </c>
       <c r="AF7" t="s">
         <v>7</v>
@@ -1912,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -1929,20 +1947,27 @@
       <c r="J8" t="s">
         <v>7</v>
       </c>
+      <c r="N8" t="s">
+        <v>303</v>
+      </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
         <v>7</v>
       </c>
       <c r="AC8" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="12" t="str">
+        <f t="shared" ref="AD8" si="2">O8</f>
+        <v>Nebenkosten</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1950,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1968,36 +1993,27 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
-      <c r="W9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" t="s">
-        <v>7</v>
-      </c>
       <c r="AC9" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -2005,43 +2021,46 @@
       <c r="D10" t="s">
         <v>55</v>
       </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" t="s">
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>144</v>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>7</v>
       </c>
       <c r="AC10" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -2052,29 +2071,40 @@
       <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="V11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD11"/>
+      <c r="AC11" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -2082,46 +2112,32 @@
       <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
       <c r="J12" t="s">
         <v>7</v>
       </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
       <c r="O12" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
-      </c>
-      <c r="R12" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>7</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AD12"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -2129,46 +2145,35 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" t="s">
-        <v>295</v>
-      </c>
       <c r="O13" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="R13" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="T13" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Z13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="W13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC13" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AF13" t="s">
         <v>7</v>
@@ -2179,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2190,41 +2195,54 @@
       <c r="J14" t="s">
         <v>7</v>
       </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>222</v>
-      </c>
-      <c r="M14" t="s">
-        <v>216</v>
+      <c r="N14" t="s">
+        <v>292</v>
       </c>
       <c r="O14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>7</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="R14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" t="s">
+        <v>226</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
       <c r="Z14" t="s">
         <v>7</v>
       </c>
       <c r="AA14" t="s">
         <v>7</v>
       </c>
-      <c r="AB14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD14"/>
+      <c r="AC14" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -2235,30 +2253,41 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" t="s">
+        <v>213</v>
+      </c>
       <c r="O15" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
-      </c>
-      <c r="R15" t="s">
-        <v>7</v>
-      </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="AC15" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>172</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD15"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2269,29 +2298,30 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
-      <c r="K16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" t="s">
-        <v>171</v>
-      </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD16"/>
+        <v>170</v>
+      </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="AC16" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2299,43 +2329,32 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="s">
+        <v>168</v>
+      </c>
       <c r="O17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
-      </c>
-      <c r="R17" t="s">
-        <v>7</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="T17" t="s">
-        <v>186</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC17" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>7</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AD17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2343,20 +2362,35 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" t="s">
+        <v>177</v>
+      </c>
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M18" t="s">
-        <v>179</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="T18" t="s">
         <v>183</v>
       </c>
-      <c r="P18" t="s">
+      <c r="U18" s="7" t="s">
         <v>184</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2364,7 +2398,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2372,20 +2406,20 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="s">
+        <v>176</v>
+      </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
-      </c>
-      <c r="R19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2393,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2401,25 +2435,20 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
       <c r="O20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="R20" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
       <c r="AC20" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>194</v>
+        <v>13</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2427,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2438,29 +2467,30 @@
       <c r="J21" t="s">
         <v>7</v>
       </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s">
         <v>193</v>
       </c>
-      <c r="M21" t="s">
+      <c r="R21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="AC21" s="14">
+        <v>14</v>
+      </c>
+      <c r="AD21" t="s">
         <v>191</v>
       </c>
-      <c r="O21" t="s">
-        <v>195</v>
-      </c>
-      <c r="P21" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD21"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2475,16 +2505,16 @@
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AD22"/>
     </row>
@@ -2493,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2501,47 +2531,32 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
       <c r="J23" t="s">
         <v>7</v>
       </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M23" t="s">
+        <v>298</v>
+      </c>
       <c r="O23" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
-      </c>
-      <c r="R23" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC23" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD23" s="12" t="str">
-        <f t="shared" ref="AD23" si="3">O23</f>
-        <v>Dienststelle</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="AD23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2558,53 +2573,38 @@
       <c r="J24" t="s">
         <v>7</v>
       </c>
-      <c r="N24" t="s">
-        <v>264</v>
-      </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="R24" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="T24" t="s">
-        <v>281</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="W24" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="X24" t="s">
         <v>7</v>
       </c>
       <c r="AC24" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD24" s="12" t="str">
-        <f t="shared" ref="AD24" si="4">O24</f>
-        <v>Auto</v>
+        <f t="shared" ref="AD24" si="3">O24</f>
+        <v>Dienststelle</v>
       </c>
       <c r="AF24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2612,36 +2612,51 @@
       <c r="D25" t="s">
         <v>55</v>
       </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
       <c r="J25" t="s">
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="R25" t="s">
         <v>7</v>
       </c>
+      <c r="S25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="T25" t="s">
+        <v>278</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="W25" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="X25" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" t="s">
-        <v>7</v>
-      </c>
       <c r="AC25" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD25" s="12" t="str">
-        <f t="shared" ref="AD25" si="5">O25</f>
-        <v>Mitarbeiter</v>
+        <f t="shared" ref="AD25" si="4">O25</f>
+        <v>Auto</v>
       </c>
       <c r="AF25" t="s">
         <v>7</v>
@@ -2652,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2663,13 +2678,35 @@
       <c r="J26" t="s">
         <v>7</v>
       </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
       <c r="O26" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="R26" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="12" t="str">
+        <f t="shared" ref="AD26" si="5">O26</f>
+        <v>Mitarbeiter</v>
+      </c>
+      <c r="AF26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2678,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2686,41 +2723,16 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
       <c r="J27" t="s">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
-      </c>
-      <c r="W27" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC27" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD27" s="12" t="str">
-        <f t="shared" ref="AD27" si="6">O27</f>
-        <v>Werkzeug</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>257</v>
+      </c>
+      <c r="R27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2729,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2737,14 +2749,42 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
       <c r="J28" t="s">
         <v>7</v>
       </c>
       <c r="O28" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s">
-        <v>272</v>
+        <v>262</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD28" s="12" t="str">
+        <f t="shared" ref="AD28" si="6">O28</f>
+        <v>Werkzeug</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -2752,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2764,19 +2804,10 @@
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -2784,7 +2815,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2796,10 +2827,19 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -2807,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2819,13 +2859,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
-      </c>
-      <c r="R31" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -2833,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2845,10 +2882,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="R32" t="s">
         <v>7</v>
@@ -2859,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2871,10 +2908,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P33" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -2885,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -2897,10 +2934,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -2911,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -2919,11 +2956,37 @@
       <c r="D35" t="s">
         <v>55</v>
       </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
       <c r="O35" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P35" t="s">
-        <v>305</v>
+        <v>288</v>
+      </c>
+      <c r="R35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" t="s">
+        <v>301</v>
+      </c>
+      <c r="P36" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2943,13 +3006,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T108"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,10 +3087,10 @@
         <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3296,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3311,13 +3374,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3357,7 +3420,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -3368,14 +3431,11 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3386,7 +3446,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -3401,10 +3461,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3415,25 +3475,16 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>84</v>
+      <c r="I15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3444,7 +3495,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3455,11 +3506,17 @@
       <c r="F16" t="s">
         <v>7</v>
       </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
+        <v>307</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3481,11 +3538,14 @@
       <c r="F17" t="s">
         <v>7</v>
       </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3496,7 +3556,7 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -3511,10 +3571,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3522,10 +3582,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -3540,10 +3600,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3551,10 +3611,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -3569,10 +3629,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3580,11 +3640,11 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -3598,10 +3658,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3609,10 +3669,10 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -3627,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3638,10 +3698,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -3656,10 +3716,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3667,10 +3727,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3685,10 +3745,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3696,28 +3756,28 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="I25" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -3725,10 +3785,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -3743,16 +3803,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" s="14">
-        <v>1</v>
-      </c>
-      <c r="P26" s="14">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -3760,11 +3814,11 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
@@ -3778,13 +3832,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="O27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" s="14">
         <v>1</v>
@@ -3795,10 +3849,10 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -3813,16 +3867,16 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="O28" s="14">
         <v>2</v>
       </c>
       <c r="P28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -3830,10 +3884,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -3848,13 +3902,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="14">
         <v>2</v>
@@ -3865,10 +3919,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -3883,16 +3937,16 @@
         <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14">
         <v>2</v>
-      </c>
-      <c r="P30" s="14">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -3900,10 +3954,10 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -3914,17 +3968,20 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" s="7" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O31" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P31" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3932,28 +3989,31 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
       <c r="F32" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O32" s="14">
         <v>6</v>
       </c>
       <c r="P32" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3961,31 +4021,28 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
       <c r="F33" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O33" s="14">
         <v>6</v>
       </c>
       <c r="P33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -3993,25 +4050,28 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
       <c r="F34" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="O34" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P34" s="14">
         <v>3</v>
@@ -4022,10 +4082,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -4034,16 +4094,16 @@
         <v>7</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O35" s="14">
+        <v>1</v>
+      </c>
+      <c r="P35" s="14">
         <v>3</v>
-      </c>
-      <c r="P35" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4051,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -4063,16 +4123,16 @@
         <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O36" s="14">
         <v>3</v>
       </c>
       <c r="P36" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -4080,10 +4140,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -4092,16 +4152,16 @@
         <v>7</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O37" s="14">
         <v>3</v>
       </c>
       <c r="P37" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4109,10 +4169,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -4121,16 +4181,16 @@
         <v>7</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O38" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P38" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4138,10 +4198,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -4150,16 +4210,16 @@
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O39" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P39" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4167,10 +4227,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -4179,16 +4239,16 @@
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="14">
         <v>5</v>
       </c>
       <c r="P40" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -4196,10 +4256,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -4208,13 +4268,13 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O41" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P41" s="14">
         <v>1</v>
@@ -4225,10 +4285,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -4237,16 +4297,16 @@
         <v>7</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O42" s="14">
         <v>4</v>
       </c>
       <c r="P42" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4254,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -4266,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>199</v>
@@ -4275,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="P43" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4283,10 +4343,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -4295,13 +4355,13 @@
         <v>7</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="O44" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P44" s="14">
         <v>3</v>
@@ -4312,60 +4372,60 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O45" s="14">
         <v>7</v>
       </c>
       <c r="P45" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O46" s="14">
+        <v>7</v>
+      </c>
+      <c r="P46" s="14">
         <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O46" s="14">
-        <v>5</v>
-      </c>
-      <c r="P46" s="14">
-        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,33 +4433,39 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="O47" s="14">
+        <v>5</v>
+      </c>
+      <c r="P47" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -4407,17 +4473,11 @@
       <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -4425,10 +4485,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -4439,11 +4499,14 @@
       <c r="F49" t="s">
         <v>7</v>
       </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -4451,25 +4514,25 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
       <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4477,25 +4540,25 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
       <c r="F51" t="s">
         <v>7</v>
       </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -4503,10 +4566,10 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -4518,10 +4581,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -4529,10 +4592,10 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -4544,10 +4607,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -4555,10 +4618,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -4570,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4581,10 +4644,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4595,14 +4658,11 @@
       <c r="F55" t="s">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -4610,10 +4670,10 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -4624,11 +4684,14 @@
       <c r="F56" t="s">
         <v>7</v>
       </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
       <c r="H56" s="7" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -4636,16 +4699,25 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4653,37 +4725,16 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="14">
-        <v>1</v>
-      </c>
-      <c r="P58" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>557</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -4691,10 +4742,10 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -4709,13 +4760,13 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59" s="14">
         <v>1</v>
@@ -4729,10 +4780,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -4747,22 +4798,19 @@
         <v>7</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J60" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="O60" s="14">
         <v>2</v>
       </c>
       <c r="P60" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -4770,28 +4818,40 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
       <c r="F61" t="s">
         <v>7</v>
       </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
       <c r="H61" s="7" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>122</v>
+        <v>232</v>
+      </c>
+      <c r="J61" t="s">
+        <v>233</v>
       </c>
       <c r="O61" s="14">
         <v>2</v>
       </c>
       <c r="P61" s="14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4799,10 +4859,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -4810,20 +4870,17 @@
       <c r="F62" t="s">
         <v>7</v>
       </c>
-      <c r="G62" t="s">
-        <v>7</v>
-      </c>
       <c r="H62" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="O62" s="14">
+        <v>2</v>
+      </c>
+      <c r="P62" s="14">
         <v>3</v>
-      </c>
-      <c r="P62" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4831,17 +4888,14 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
       <c r="F63" t="s">
         <v>7</v>
       </c>
@@ -4849,10 +4903,10 @@
         <v>7</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="O63" s="14">
         <v>3</v>
@@ -4866,25 +4920,28 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="I64" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O64" s="14">
         <v>3</v>
@@ -4898,66 +4955,66 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
       <c r="H65" s="7" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="O65" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P65" s="14">
         <v>1</v>
       </c>
-      <c r="Q65">
-        <v>557</v>
-      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
       <c r="F66" t="s">
         <v>7</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O66" s="14">
         <v>4</v>
       </c>
       <c r="P66" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4965,31 +5022,31 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
       <c r="F67" t="s">
         <v>7</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O67" s="14">
         <v>4</v>
       </c>
       <c r="P67" s="14">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4997,10 +5054,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -5012,16 +5069,16 @@
         <v>7</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O68" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -5029,10 +5086,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -5044,10 +5101,10 @@
         <v>7</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O69" s="14">
         <v>5</v>
@@ -5061,10 +5118,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -5076,10 +5133,10 @@
         <v>7</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O70" s="14">
         <v>5</v>
@@ -5093,10 +5150,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -5108,16 +5165,16 @@
         <v>7</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="O71" s="14">
         <v>5</v>
       </c>
       <c r="P71" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -5125,10 +5182,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -5140,16 +5197,16 @@
         <v>7</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
       </c>
       <c r="P72" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -5157,10 +5214,10 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -5171,23 +5228,17 @@
       <c r="F73" t="s">
         <v>7</v>
       </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="O73" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P73" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>557</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -5195,10 +5246,10 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -5213,13 +5264,13 @@
         <v>7</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O74" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P74" s="14">
         <v>1</v>
@@ -5233,10 +5284,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -5247,23 +5298,23 @@
       <c r="F75" t="s">
         <v>7</v>
       </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
       <c r="H75" s="7" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J75" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="O75" s="14">
         <v>2</v>
       </c>
       <c r="P75" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>370</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -5271,11 +5322,11 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
         <v>216</v>
       </c>
-      <c r="C76" t="s">
-        <v>237</v>
-      </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
@@ -5285,23 +5336,20 @@
       <c r="F76" t="s">
         <v>7</v>
       </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
       <c r="H76" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="O76" s="14">
         <v>2</v>
       </c>
       <c r="P76" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q76">
         <v>370</v>
@@ -5312,10 +5360,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -5330,16 +5378,22 @@
         <v>7</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>84</v>
+        <v>232</v>
+      </c>
+      <c r="J77" t="s">
+        <v>235</v>
       </c>
       <c r="O77" s="14">
+        <v>2</v>
+      </c>
+      <c r="P77" s="14">
         <v>3</v>
       </c>
-      <c r="P77" s="14">
-        <v>1</v>
+      <c r="Q77">
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -5347,25 +5401,28 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="I78" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O78" s="14">
         <v>3</v>
@@ -5379,10 +5436,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -5390,17 +5447,20 @@
       <c r="F79" t="s">
         <v>7</v>
       </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
       <c r="H79" s="7" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="O79" s="14">
         <v>3</v>
       </c>
       <c r="P79" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -5408,10 +5468,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -5419,14 +5479,17 @@
       <c r="F80" t="s">
         <v>7</v>
       </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
       <c r="H80" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>218</v>
+        <v>119</v>
+      </c>
+      <c r="O80" s="14">
+        <v>3</v>
+      </c>
+      <c r="P80" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5434,22 +5497,25 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
       <c r="G81" t="s">
         <v>7</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5457,25 +5523,22 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="I82" s="7" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5483,10 +5546,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -5497,14 +5560,11 @@
       <c r="F83" t="s">
         <v>7</v>
       </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
       <c r="H83" s="7" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5512,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -5526,11 +5586,14 @@
       <c r="F84" t="s">
         <v>7</v>
       </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
       <c r="H84" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I84" t="s">
-        <v>122</v>
+        <v>27</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5538,10 +5601,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -5552,14 +5615,11 @@
       <c r="F85" t="s">
         <v>7</v>
       </c>
-      <c r="G85" t="s">
-        <v>7</v>
-      </c>
       <c r="H85" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>250</v>
+        <v>134</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5567,10 +5627,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -5581,11 +5641,14 @@
       <c r="F86" t="s">
         <v>7</v>
       </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
       <c r="H86" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I86" t="s">
-        <v>122</v>
+        <v>246</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5593,10 +5656,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -5608,10 +5671,10 @@
         <v>7</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>252</v>
+        <v>134</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5619,10 +5682,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -5633,20 +5696,11 @@
       <c r="F88" t="s">
         <v>7</v>
       </c>
-      <c r="G88" t="s">
-        <v>7</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O88" s="14">
-        <v>2</v>
-      </c>
-      <c r="P88" s="14">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5654,10 +5708,10 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -5672,13 +5726,13 @@
         <v>7</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="O89" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89" s="14">
         <v>1</v>
@@ -5689,10 +5743,10 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -5703,17 +5757,20 @@
       <c r="F90" t="s">
         <v>7</v>
       </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
       <c r="H90" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O90" s="14">
         <v>1</v>
       </c>
       <c r="P90" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5721,10 +5778,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -5735,20 +5792,14 @@
       <c r="F91" t="s">
         <v>7</v>
       </c>
-      <c r="G91" t="s">
-        <v>7</v>
-      </c>
       <c r="H91" s="7" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J91" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="O91" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" s="14">
         <v>2</v>
@@ -5759,34 +5810,37 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J92" t="s">
         <v>254</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J92" t="s">
-        <v>255</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
       </c>
       <c r="P92" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5794,28 +5848,34 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="J93" t="s">
+        <v>252</v>
       </c>
       <c r="O93" s="14">
+        <v>2</v>
+      </c>
+      <c r="P93" s="14">
         <v>3</v>
-      </c>
-      <c r="P93" s="14">
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5823,10 +5883,10 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -5835,16 +5895,16 @@
         <v>7</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O94" s="14">
         <v>3</v>
       </c>
       <c r="P94" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5852,10 +5912,10 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -5864,16 +5924,16 @@
         <v>7</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O95" s="14">
         <v>3</v>
       </c>
       <c r="P95" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5881,10 +5941,10 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -5893,16 +5953,16 @@
         <v>7</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I96" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="O96" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P96" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5910,10 +5970,10 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -5922,16 +5982,16 @@
         <v>7</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
+        <v>119</v>
       </c>
       <c r="O97" s="14">
         <v>4</v>
       </c>
       <c r="P97" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5939,10 +5999,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -5951,16 +6011,16 @@
         <v>7</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O98" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P98" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -5968,10 +6028,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -5980,16 +6040,16 @@
         <v>7</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O99" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P99" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -5997,10 +6057,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -6009,16 +6069,16 @@
         <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O100" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P100" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -6026,10 +6086,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -6038,16 +6098,16 @@
         <v>7</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O101" s="14">
         <v>5</v>
       </c>
       <c r="P101" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -6055,10 +6115,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -6066,41 +6126,32 @@
       <c r="F102" t="s">
         <v>7</v>
       </c>
-      <c r="G102" t="s">
-        <v>7</v>
-      </c>
       <c r="H102" s="7" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="O102" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P102" s="14">
         <v>3</v>
       </c>
-      <c r="T102" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
@@ -6108,10 +6159,19 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="O103" s="14">
+        <v>1</v>
+      </c>
+      <c r="P103" s="14">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -6119,10 +6179,10 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -6137,10 +6197,10 @@
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -6148,25 +6208,28 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="I105" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6174,10 +6237,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -6188,14 +6251,11 @@
       <c r="F106" t="s">
         <v>7</v>
       </c>
-      <c r="G106" t="s">
-        <v>7</v>
-      </c>
       <c r="H106" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6203,10 +6263,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6221,10 +6281,10 @@
         <v>7</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6232,10 +6292,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -6246,11 +6306,69 @@
       <c r="F108" t="s">
         <v>7</v>
       </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>270</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6302,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6343,7 +6461,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -6354,7 +6472,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -6365,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -6376,7 +6494,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="320">
   <si>
     <t>Schema</t>
   </si>
@@ -1076,6 +1076,39 @@
   </si>
   <si>
     <t>additionalCostTypes</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Stundensätze</t>
+  </si>
+  <si>
+    <t>Employee_Rate_Rsp</t>
+  </si>
+  <si>
+    <t>Mitarbeiterlohn</t>
+  </si>
+  <si>
+    <t>Employee rate</t>
+  </si>
+  <si>
+    <t>Settings/EmployeeRateRsps</t>
+  </si>
+  <si>
+    <t>employeeRates</t>
+  </si>
+  <si>
+    <t>CustomPrice</t>
+  </si>
+  <si>
+    <t>Spezial</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>employeeId</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,6 +2723,18 @@
       <c r="R26" t="s">
         <v>7</v>
       </c>
+      <c r="S26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="T26" t="s">
+        <v>315</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="W26" t="s">
         <v>27</v>
       </c>
@@ -2891,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2943,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2987,6 +3032,86 @@
       </c>
       <c r="P36" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" t="s">
+        <v>310</v>
+      </c>
+      <c r="P37" t="s">
+        <v>309</v>
+      </c>
+      <c r="R37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>20</v>
+      </c>
+      <c r="AD37" s="12" t="str">
+        <f t="shared" ref="AD37" si="7">O37</f>
+        <v>Stundensätze</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s">
+        <v>241</v>
+      </c>
+      <c r="N38" t="s">
+        <v>238</v>
+      </c>
+      <c r="O38" t="s">
+        <v>312</v>
+      </c>
+      <c r="P38" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3006,13 +3131,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,6 +6494,267 @@
       </c>
       <c r="I110" s="7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="326">
   <si>
     <t>Schema</t>
   </si>
@@ -1109,6 +1109,24 @@
   </si>
   <si>
     <t>employeeId</t>
+  </si>
+  <si>
+    <t>CustomProducts</t>
+  </si>
+  <si>
+    <t>Sonderleistungen</t>
+  </si>
+  <si>
+    <t>Custom product</t>
+  </si>
+  <si>
+    <t>TermCosts</t>
+  </si>
+  <si>
+    <t>Termin Kosten</t>
+  </si>
+  <si>
+    <t>Term costs</t>
   </si>
 </sst>
 </file>
@@ -1543,13 +1561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,6 +3132,74 @@
         <v>313</v>
       </c>
     </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" t="s">
+        <v>321</v>
+      </c>
+      <c r="P39" t="s">
+        <v>322</v>
+      </c>
+      <c r="R39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD39" s="12" t="str">
+        <f t="shared" ref="AD39" si="8">O39</f>
+        <v>Sonderleistungen</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" t="s">
+        <v>324</v>
+      </c>
+      <c r="P40" t="s">
+        <v>325</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P5">
     <sortState ref="A2:K98">
@@ -3131,13 +3217,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
+      <selection pane="bottomRight" activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,6 +6841,90 @@
       </c>
       <c r="I119" s="7" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>320</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>320</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="332">
   <si>
     <t>Schema</t>
   </si>
@@ -859,9 +859,6 @@
     <t>productAmountTypes</t>
   </si>
   <si>
-    <t>MaterialAmountTypes</t>
-  </si>
-  <si>
     <t>Settings/ProductMaterialRsps</t>
   </si>
   <si>
@@ -1027,9 +1024,6 @@
     <t>IsColorElement</t>
   </si>
   <si>
-    <t>ProductTypes,ProductAmountTypes</t>
-  </si>
-  <si>
     <t>TermEmployees</t>
   </si>
   <si>
@@ -1127,6 +1121,30 @@
   </si>
   <si>
     <t>Term costs</t>
+  </si>
+  <si>
+    <t>ProceedsAccounts</t>
+  </si>
+  <si>
+    <t>Erlöskonten</t>
+  </si>
+  <si>
+    <t>Proceeds accounts</t>
+  </si>
+  <si>
+    <t>ProductTypes,ProductAmountTypes,ProceedsAccounts</t>
+  </si>
+  <si>
+    <t>AdditionalCostTypes,ProceedsAccounts</t>
+  </si>
+  <si>
+    <t>MaterialAmountTypes,ProceedsAccounts</t>
+  </si>
+  <si>
+    <t>proceedsAccounts</t>
+  </si>
+  <si>
+    <t>ProceedsAccountId</t>
   </si>
 </sst>
 </file>
@@ -1561,13 +1579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1698,7 @@
         <v>209</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>65</v>
@@ -1852,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -1894,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="O6" t="s">
         <v>225</v>
@@ -1933,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1951,10 +1969,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R7" t="s">
         <v>7</v>
@@ -1999,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="O8" t="s">
         <v>82</v>
@@ -2247,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="O14" t="s">
         <v>227</v>
@@ -2259,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T14" t="s">
         <v>226</v>
@@ -2574,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2589,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O23" t="s">
         <v>228</v>
@@ -2607,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2625,10 +2643,10 @@
         <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R24" t="s">
         <v>7</v>
@@ -2655,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2673,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
         <v>87</v>
@@ -2685,16 +2703,16 @@
         <v>7</v>
       </c>
       <c r="S25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="T25" t="s">
         <v>277</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="V25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="W25" t="s">
         <v>106</v>
@@ -2718,7 +2736,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2730,28 +2748,28 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" t="s">
         <v>243</v>
       </c>
-      <c r="P26" t="s">
-        <v>244</v>
-      </c>
       <c r="R26" t="s">
         <v>7</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W26" t="s">
         <v>27</v>
@@ -2778,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2790,10 +2808,10 @@
         <v>7</v>
       </c>
       <c r="O27" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" t="s">
         <v>256</v>
-      </c>
-      <c r="P27" t="s">
-        <v>257</v>
       </c>
       <c r="R27" t="s">
         <v>7</v>
@@ -2804,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2821,11 +2839,14 @@
       <c r="J28" t="s">
         <v>7</v>
       </c>
+      <c r="N28" t="s">
+        <v>324</v>
+      </c>
       <c r="O28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W28" t="s">
         <v>27</v>
@@ -2855,7 +2876,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2867,10 +2888,10 @@
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -2878,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2890,10 +2911,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s">
         <v>7</v>
@@ -2910,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2922,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -2933,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2945,10 +2966,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R32" t="s">
         <v>7</v>
@@ -2959,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2971,10 +2992,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -2985,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -2997,10 +3018,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -3011,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -3023,10 +3044,10 @@
         <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R35" t="s">
         <v>7</v>
@@ -3037,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -3046,10 +3067,10 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -3057,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3075,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s">
         <v>7</v>
@@ -3102,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -3117,19 +3138,19 @@
         <v>7</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -3137,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -3154,11 +3175,14 @@
       <c r="J39" t="s">
         <v>7</v>
       </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
       <c r="O39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R39" t="s">
         <v>7</v>
@@ -3179,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3191,13 +3215,58 @@
         <v>7</v>
       </c>
       <c r="O40" t="s">
+        <v>322</v>
+      </c>
+      <c r="P40" t="s">
+        <v>323</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
         <v>324</v>
       </c>
-      <c r="P40" t="s">
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" t="s">
         <v>325</v>
       </c>
-      <c r="R40" t="s">
-        <v>7</v>
+      <c r="P41" t="s">
+        <v>326</v>
+      </c>
+      <c r="R41" t="s">
+        <v>7</v>
+      </c>
+      <c r="W41" t="s">
+        <v>92</v>
+      </c>
+      <c r="X41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>22</v>
+      </c>
+      <c r="AD41" s="12" t="str">
+        <f t="shared" ref="AD41" si="9">O41</f>
+        <v>Erlöskonten</v>
       </c>
     </row>
   </sheetData>
@@ -3217,13 +3286,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H122" sqref="H122"/>
+      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3370,7 @@
         <v>229</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3570,28 +3639,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" t="s">
         <v>258</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3706,28 +3775,28 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J16" t="s">
         <v>306</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="J16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3738,7 +3807,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -3758,6 +3827,9 @@
       <c r="I17" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="J17" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3807,9 +3879,6 @@
       <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
       <c r="H19" s="7" t="s">
         <v>99</v>
       </c>
@@ -5009,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>106</v>
@@ -5169,7 +5238,7 @@
         <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -5186,11 +5255,14 @@
       <c r="I65" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="J65" t="s">
+        <v>330</v>
+      </c>
       <c r="O65" s="14">
         <v>3</v>
       </c>
       <c r="P65" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -5396,22 +5468,22 @@
         <v>221</v>
       </c>
       <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5428,22 +5500,22 @@
         <v>221</v>
       </c>
       <c r="C73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="O73" s="14">
         <v>5</v>
@@ -5650,7 +5722,7 @@
         <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -5667,6 +5739,9 @@
       <c r="I79" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="J79" t="s">
+        <v>330</v>
+      </c>
       <c r="O79" s="14">
         <v>3</v>
       </c>
@@ -5783,7 +5858,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -5812,7 +5887,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C85" t="s">
         <v>119</v>
@@ -5838,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
@@ -5856,10 +5931,10 @@
         <v>7</v>
       </c>
       <c r="H86" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5867,7 +5942,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
         <v>119</v>
@@ -5893,10 +5968,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -5908,10 +5983,10 @@
         <v>7</v>
       </c>
       <c r="H88" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5919,7 +5994,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
         <v>106</v>
@@ -5954,7 +6029,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -5989,7 +6064,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
         <v>144</v>
@@ -6021,31 +6096,31 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C92" t="s">
-        <v>250</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="I92" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -6059,10 +6134,10 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -6080,7 +6155,7 @@
         <v>87</v>
       </c>
       <c r="J93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O93" s="14">
         <v>2</v>
@@ -6094,7 +6169,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
@@ -6123,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
@@ -6152,7 +6227,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
         <v>126</v>
@@ -6181,7 +6256,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
         <v>119</v>
@@ -6210,7 +6285,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
         <v>112</v>
@@ -6239,7 +6314,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
         <v>113</v>
@@ -6268,7 +6343,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
         <v>114</v>
@@ -6297,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
         <v>115</v>
@@ -6326,7 +6401,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
         <v>116</v>
@@ -6355,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
         <v>154</v>
@@ -6390,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -6408,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>27</v>
@@ -6419,7 +6494,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
@@ -6448,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
@@ -6474,7 +6549,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
         <v>157</v>
@@ -6503,10 +6578,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -6526,31 +6601,34 @@
       <c r="I108" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="J108" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -6558,7 +6636,7 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -6587,10 +6665,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -6605,13 +6683,13 @@
         <v>7</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -6619,7 +6697,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
         <v>84</v>
@@ -6648,7 +6726,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
         <v>93</v>
@@ -6677,7 +6755,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
         <v>94</v>
@@ -6706,10 +6784,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -6721,10 +6799,10 @@
         <v>7</v>
       </c>
       <c r="H115" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6732,10 +6810,10 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -6750,13 +6828,13 @@
         <v>7</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -6764,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C117" t="s">
         <v>93</v>
@@ -6793,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
         <v>94</v>
@@ -6822,25 +6900,25 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6848,7 +6926,7 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -6877,7 +6955,7 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C121" t="s">
         <v>84</v>
@@ -6906,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
         <v>87</v>
@@ -6925,6 +7003,67 @@
       </c>
       <c r="I122" s="7" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" t="s">
+        <v>331</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J123" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7028,7 +7167,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -7050,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="332">
   <si>
     <t>Schema</t>
   </si>
@@ -1581,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3286,13 +3286,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,7 +6099,7 @@
         <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -6114,13 +6114,13 @@
         <v>7</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -6137,31 +6137,25 @@
         <v>240</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="O93" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P93" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -6172,7 +6166,7 @@
         <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -6181,16 +6175,16 @@
         <v>7</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O94" s="14">
         <v>3</v>
       </c>
       <c r="P94" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6201,7 +6195,7 @@
         <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -6210,16 +6204,16 @@
         <v>7</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O95" s="14">
         <v>3</v>
       </c>
       <c r="P95" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -6230,7 +6224,7 @@
         <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -6239,16 +6233,16 @@
         <v>7</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>119</v>
       </c>
       <c r="O96" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P96" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -6259,7 +6253,7 @@
         <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -6268,16 +6262,16 @@
         <v>7</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I97" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="O97" s="14">
         <v>4</v>
       </c>
       <c r="P97" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -6288,7 +6282,7 @@
         <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -6297,16 +6291,16 @@
         <v>7</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O98" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P98" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -6317,7 +6311,7 @@
         <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -6326,16 +6320,16 @@
         <v>7</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O99" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P99" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -6346,7 +6340,7 @@
         <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -6355,16 +6349,16 @@
         <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O100" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P100" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -6375,7 +6369,7 @@
         <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -6384,16 +6378,16 @@
         <v>7</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O101" s="14">
         <v>5</v>
       </c>
       <c r="P101" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -6404,7 +6398,7 @@
         <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -6412,32 +6406,41 @@
       <c r="F102" t="s">
         <v>7</v>
       </c>
+      <c r="G102" t="s">
+        <v>7</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="O102" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P102" s="14">
         <v>3</v>
       </c>
+      <c r="T102" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
@@ -6445,19 +6448,10 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O103" s="14">
-        <v>1</v>
-      </c>
-      <c r="P103" s="14">
-        <v>3</v>
-      </c>
-      <c r="T103" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -6468,7 +6462,7 @@
         <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -6483,10 +6477,10 @@
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -6497,7 +6491,7 @@
         <v>260</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -6508,14 +6502,11 @@
       <c r="F105" t="s">
         <v>7</v>
       </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
       <c r="H105" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6526,7 +6517,7 @@
         <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -6537,11 +6528,14 @@
       <c r="F106" t="s">
         <v>7</v>
       </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6552,7 +6546,7 @@
         <v>260</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6567,10 +6561,13 @@
         <v>7</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>165</v>
+        <v>89</v>
+      </c>
+      <c r="J107" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6581,7 +6578,7 @@
         <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -6592,17 +6589,11 @@
       <c r="F108" t="s">
         <v>7</v>
       </c>
-      <c r="G108" t="s">
-        <v>7</v>
-      </c>
       <c r="H108" s="7" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J108" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6610,10 +6601,10 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -6624,11 +6615,14 @@
       <c r="F109" t="s">
         <v>7</v>
       </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -6636,10 +6630,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -6654,10 +6648,13 @@
         <v>7</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>27</v>
+        <v>238</v>
+      </c>
+      <c r="J110" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -6668,7 +6665,7 @@
         <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -6683,13 +6680,10 @@
         <v>7</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J111" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -6700,7 +6694,7 @@
         <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -6715,10 +6709,10 @@
         <v>7</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6729,7 +6723,7 @@
         <v>307</v>
       </c>
       <c r="C113" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -6744,10 +6738,10 @@
         <v>7</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -6755,17 +6749,14 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
       <c r="F114" t="s">
         <v>7</v>
       </c>
@@ -6773,10 +6764,10 @@
         <v>7</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6787,11 +6778,14 @@
         <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
       <c r="F115" t="s">
         <v>7</v>
       </c>
@@ -6799,10 +6793,13 @@
         <v>7</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="J115" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6813,7 +6810,7 @@
         <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -6828,13 +6825,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J116" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -6845,7 +6839,7 @@
         <v>309</v>
       </c>
       <c r="C117" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -6860,10 +6854,10 @@
         <v>7</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -6874,7 +6868,7 @@
         <v>309</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -6885,14 +6879,11 @@
       <c r="F118" t="s">
         <v>7</v>
       </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
       <c r="H118" s="7" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6900,10 +6891,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C119" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -6914,11 +6905,14 @@
       <c r="F119" t="s">
         <v>7</v>
       </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
       <c r="H119" s="7" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6929,7 +6923,7 @@
         <v>318</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -6944,10 +6938,10 @@
         <v>7</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6958,7 +6952,7 @@
         <v>318</v>
       </c>
       <c r="C121" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -6969,14 +6963,11 @@
       <c r="F121" t="s">
         <v>7</v>
       </c>
-      <c r="G121" t="s">
-        <v>7</v>
-      </c>
       <c r="H121" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6987,7 +6978,7 @@
         <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -6998,11 +6989,17 @@
       <c r="F122" t="s">
         <v>7</v>
       </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
       <c r="H122" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="J122" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7010,10 +7007,10 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -7028,41 +7025,9 @@
         <v>7</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J123" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" t="s">
-        <v>324</v>
-      </c>
-      <c r="C124" t="s">
-        <v>92</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" t="s">
-        <v>7</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I124" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7113,13 +7078,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7192,6 +7157,17 @@
         <v>260</v>
       </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="335">
   <si>
     <t>Schema</t>
   </si>
@@ -1145,6 +1145,15 @@
   </si>
   <si>
     <t>ProceedsAccountId</t>
+  </si>
+  <si>
+    <t>InvoicePayments</t>
+  </si>
+  <si>
+    <t>Rechnung Einzahlung</t>
+  </si>
+  <si>
+    <t>Invoice payment</t>
   </si>
 </sst>
 </file>
@@ -1579,13 +1588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2504,20 +2513,20 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" t="s">
+        <v>176</v>
+      </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
-      </c>
-      <c r="R20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="12" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2525,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2533,25 +2542,20 @@
       <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
       <c r="O21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="R21" t="s">
         <v>7</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
       <c r="AC21" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>191</v>
+        <v>13</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2559,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2570,29 +2574,30 @@
       <c r="J22" t="s">
         <v>7</v>
       </c>
-      <c r="K22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s">
-        <v>188</v>
-      </c>
       <c r="O22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD22"/>
+        <v>193</v>
+      </c>
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="AC22" s="14">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2607,16 +2612,16 @@
         <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2625,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2633,47 +2638,32 @@
       <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
       <c r="J24" t="s">
         <v>7</v>
       </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>297</v>
+      </c>
+      <c r="M24" t="s">
+        <v>296</v>
+      </c>
       <c r="O24" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
-      </c>
-      <c r="R24" t="s">
-        <v>7</v>
-      </c>
-      <c r="W24" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC24" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD24" s="12" t="str">
-        <f t="shared" ref="AD24" si="3">O24</f>
-        <v>Dienststelle</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2690,53 +2680,38 @@
       <c r="J25" t="s">
         <v>7</v>
       </c>
-      <c r="N25" t="s">
-        <v>260</v>
-      </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="R25" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="T25" t="s">
-        <v>277</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="W25" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="X25" t="s">
         <v>7</v>
       </c>
       <c r="AC25" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="12" t="str">
-        <f t="shared" ref="AD25" si="4">O25</f>
-        <v>Auto</v>
+        <f t="shared" ref="AD25" si="3">O25</f>
+        <v>Dienststelle</v>
       </c>
       <c r="AF25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2744,48 +2719,51 @@
       <c r="D26" t="s">
         <v>55</v>
       </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
       <c r="J26" t="s">
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="R26" t="s">
         <v>7</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="T26" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="W26" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="X26" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" t="s">
-        <v>7</v>
-      </c>
       <c r="AC26" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD26" s="12" t="str">
-        <f t="shared" ref="AD26" si="5">O26</f>
-        <v>Mitarbeiter</v>
+        <f t="shared" ref="AD26" si="4">O26</f>
+        <v>Auto</v>
       </c>
       <c r="AF26" t="s">
         <v>7</v>
@@ -2796,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2807,13 +2785,47 @@
       <c r="J27" t="s">
         <v>7</v>
       </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
       <c r="O27" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="R27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="T27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="12" t="str">
+        <f t="shared" ref="AD27" si="5">O27</f>
+        <v>Mitarbeiter</v>
+      </c>
+      <c r="AF27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2822,7 +2834,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2830,44 +2842,16 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>7</v>
-      </c>
       <c r="J28" t="s">
         <v>7</v>
       </c>
-      <c r="N28" t="s">
-        <v>324</v>
-      </c>
       <c r="O28" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
-      </c>
-      <c r="W28" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC28" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD28" s="12" t="str">
-        <f t="shared" ref="AD28" si="6">O28</f>
-        <v>Werkzeug</v>
-      </c>
-      <c r="AF28" t="s">
+        <v>256</v>
+      </c>
+      <c r="R28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2876,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2884,14 +2868,45 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
       <c r="J29" t="s">
         <v>7</v>
       </c>
+      <c r="N29" t="s">
+        <v>324</v>
+      </c>
       <c r="O29" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>261</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD29" s="12" t="str">
+        <f t="shared" ref="AD29" si="6">O29</f>
+        <v>Werkzeug</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -2899,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2911,19 +2926,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -2931,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2943,10 +2949,19 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -2954,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2966,13 +2981,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
-      </c>
-      <c r="R32" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -2980,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -2992,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -3006,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -3018,10 +3030,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -3032,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -3044,10 +3056,10 @@
         <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P35" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="R35" t="s">
         <v>7</v>
@@ -3058,7 +3070,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -3066,11 +3078,17 @@
       <c r="D36" t="s">
         <v>55</v>
       </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
       <c r="O36" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>287</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -3078,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3086,36 +3104,11 @@
       <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" t="s">
-        <v>237</v>
-      </c>
       <c r="O37" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P37" t="s">
-        <v>307</v>
-      </c>
-      <c r="R37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC37" s="14">
-        <v>20</v>
-      </c>
-      <c r="AD37" s="12" t="str">
-        <f t="shared" ref="AD37" si="7">O37</f>
-        <v>Stundensätze</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -3123,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -3131,26 +3124,36 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
       <c r="J38" t="s">
         <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" t="s">
-        <v>317</v>
-      </c>
-      <c r="M38" t="s">
-        <v>240</v>
       </c>
       <c r="N38" t="s">
         <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="R38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>20</v>
+      </c>
+      <c r="AD38" s="12" t="str">
+        <f t="shared" ref="AD38" si="7">O38</f>
+        <v>Stundensätze</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -3158,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -3166,36 +3169,26 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
       <c r="J39" t="s">
         <v>7</v>
       </c>
+      <c r="K39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="s">
+        <v>240</v>
+      </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s">
-        <v>320</v>
-      </c>
-      <c r="R39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" s="14">
-        <v>21</v>
-      </c>
-      <c r="AD39" s="12" t="str">
-        <f t="shared" ref="AD39" si="8">O39</f>
-        <v>Sonderleistungen</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -3203,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3211,16 +3204,35 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
       <c r="J40" t="s">
         <v>7</v>
       </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD40" s="12" t="str">
+        <f t="shared" ref="AD40" si="8">O40</f>
+        <v>Sonderleistungen</v>
+      </c>
+      <c r="AF40" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3229,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3237,35 +3249,61 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
       <c r="J41" t="s">
         <v>7</v>
       </c>
       <c r="O41" t="s">
+        <v>322</v>
+      </c>
+      <c r="P41" t="s">
+        <v>323</v>
+      </c>
+      <c r="R41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" t="s">
         <v>325</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P42" t="s">
         <v>326</v>
       </c>
-      <c r="R41" t="s">
-        <v>7</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="R42" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" t="s">
         <v>92</v>
       </c>
-      <c r="X41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="14">
+      <c r="X42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="14">
         <v>22</v>
       </c>
-      <c r="AD41" s="12" t="str">
-        <f t="shared" ref="AD41" si="9">O41</f>
+      <c r="AD42" s="12" t="str">
+        <f t="shared" ref="AD42" si="9">O42</f>
         <v>Erlöskonten</v>
       </c>
     </row>
@@ -7080,7 +7118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AC20" sqref="AC20"/>
@@ -3326,11 +3326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3738,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -3749,11 +3749,14 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3764,25 +3767,16 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3793,16 +3787,28 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
+        <v>305</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3813,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3828,13 +3834,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3845,7 +3851,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -3860,13 +3866,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" t="s">
-        <v>330</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3877,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -3888,14 +3891,11 @@
       <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -3918,10 +3918,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="339">
   <si>
     <t>Schema</t>
   </si>
@@ -907,9 +907,6 @@
     <t>autos</t>
   </si>
   <si>
-    <t>Autos,JobPositions</t>
-  </si>
-  <si>
     <t>jobPositions</t>
   </si>
   <si>
@@ -1093,15 +1090,6 @@
     <t>employeeRates</t>
   </si>
   <si>
-    <t>CustomPrice</t>
-  </si>
-  <si>
-    <t>Spezial</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
     <t>employeeId</t>
   </si>
   <si>
@@ -1154,6 +1142,30 @@
   </si>
   <si>
     <t>Invoice payment</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Einkommen</t>
+  </si>
+  <si>
+    <t>SalaryType</t>
+  </si>
+  <si>
+    <t>Salary type</t>
+  </si>
+  <si>
+    <t>Einkommentyp</t>
+  </si>
+  <si>
+    <t>salaryTypes</t>
+  </si>
+  <si>
+    <t>JobPositions,SalaryTypes</t>
+  </si>
+  <si>
+    <t>Autos,JobPositions,SalaryTypes</t>
   </si>
 </sst>
 </file>
@@ -1590,11 +1602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC20" sqref="AC20"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1719,7 @@
         <v>209</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>65</v>
@@ -1879,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -1921,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O6" t="s">
         <v>225</v>
@@ -1960,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1978,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P7" t="s">
         <v>302</v>
-      </c>
-      <c r="P7" t="s">
-        <v>303</v>
       </c>
       <c r="R7" t="s">
         <v>7</v>
@@ -2026,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O8" t="s">
         <v>82</v>
@@ -2274,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O14" t="s">
         <v>227</v>
@@ -2505,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2523,10 +2535,10 @@
         <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2630,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2645,10 +2657,10 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O24" t="s">
         <v>228</v>
@@ -2729,7 +2741,7 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
         <v>87</v>
@@ -2741,16 +2753,16 @@
         <v>7</v>
       </c>
       <c r="S26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="T26" t="s">
         <v>276</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="V26" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="W26" t="s">
         <v>106</v>
@@ -2786,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="O27" t="s">
         <v>242</v>
@@ -2798,16 +2810,16 @@
         <v>7</v>
       </c>
       <c r="S27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="T27" t="s">
         <v>312</v>
       </c>
-      <c r="T27" t="s">
-        <v>313</v>
-      </c>
       <c r="U27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="V27" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -2834,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2846,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="O28" t="s">
+        <v>254</v>
+      </c>
+      <c r="P28" t="s">
         <v>255</v>
-      </c>
-      <c r="P28" t="s">
-        <v>256</v>
       </c>
       <c r="R28" t="s">
         <v>7</v>
@@ -2860,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2878,13 +2890,13 @@
         <v>7</v>
       </c>
       <c r="N29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W29" t="s">
         <v>27</v>
@@ -2914,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2926,10 +2938,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -2937,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2949,10 +2961,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s">
         <v>7</v>
@@ -2969,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2981,10 +2993,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -2992,7 +3004,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -3004,10 +3016,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R33" t="s">
         <v>7</v>
@@ -3018,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -3030,10 +3042,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -3044,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -3056,10 +3068,10 @@
         <v>7</v>
       </c>
       <c r="O35" t="s">
+        <v>291</v>
+      </c>
+      <c r="P35" t="s">
         <v>292</v>
-      </c>
-      <c r="P35" t="s">
-        <v>293</v>
       </c>
       <c r="R35" t="s">
         <v>7</v>
@@ -3070,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -3082,10 +3094,10 @@
         <v>7</v>
       </c>
       <c r="O36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R36" t="s">
         <v>7</v>
@@ -3096,7 +3108,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3105,10 +3117,10 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
+        <v>298</v>
+      </c>
+      <c r="P37" t="s">
         <v>299</v>
-      </c>
-      <c r="P37" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -3116,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -3137,10 +3149,10 @@
         <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R38" t="s">
         <v>7</v>
@@ -3161,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -3176,19 +3188,19 @@
         <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s">
         <v>240</v>
       </c>
       <c r="N39" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P39" t="s">
         <v>310</v>
-      </c>
-      <c r="P39" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -3196,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3214,13 +3226,13 @@
         <v>7</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R40" t="s">
         <v>7</v>
@@ -3241,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3253,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="O41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P41" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="R41" t="s">
         <v>7</v>
@@ -3267,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3285,10 +3297,10 @@
         <v>7</v>
       </c>
       <c r="O42" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P42" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R42" t="s">
         <v>7</v>
@@ -3324,13 +3336,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3420,7 @@
         <v>229</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3677,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3698,7 +3710,7 @@
         <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3787,28 +3799,28 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" t="s">
         <v>305</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3819,7 +3831,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3840,7 +3852,7 @@
         <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -5116,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>106</v>
@@ -5276,7 +5288,7 @@
         <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -5294,7 +5306,7 @@
         <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O65" s="14">
         <v>3</v>
@@ -5506,22 +5518,22 @@
         <v>221</v>
       </c>
       <c r="C72" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5538,22 +5550,22 @@
         <v>221</v>
       </c>
       <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="O73" s="14">
         <v>5</v>
@@ -5760,7 +5772,7 @@
         <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -5778,7 +5790,7 @@
         <v>89</v>
       </c>
       <c r="J79" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O79" s="14">
         <v>3</v>
@@ -6468,7 +6480,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -6486,7 +6498,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>27</v>
@@ -6497,7 +6509,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -6526,7 +6538,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
         <v>119</v>
@@ -6552,7 +6564,7 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
         <v>157</v>
@@ -6581,10 +6593,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6605,7 +6617,7 @@
         <v>89</v>
       </c>
       <c r="J107" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6613,25 +6625,25 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6639,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -6668,7 +6680,7 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C110" t="s">
         <v>249</v>
@@ -6692,7 +6704,7 @@
         <v>238</v>
       </c>
       <c r="J110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -6700,7 +6712,7 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
         <v>84</v>
@@ -6729,7 +6741,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C112" t="s">
         <v>93</v>
@@ -6758,7 +6770,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
         <v>94</v>
@@ -6787,10 +6799,10 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -6813,7 +6825,7 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
         <v>249</v>
@@ -6837,7 +6849,7 @@
         <v>238</v>
       </c>
       <c r="J115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6845,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
         <v>93</v>
@@ -6874,7 +6886,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
         <v>94</v>
@@ -6903,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -6917,11 +6929,14 @@
       <c r="F118" t="s">
         <v>7</v>
       </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
       <c r="H118" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6929,10 +6944,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -6947,10 +6962,13 @@
         <v>7</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>27</v>
+        <v>334</v>
+      </c>
+      <c r="J119" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6958,10 +6976,10 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -6976,10 +6994,10 @@
         <v>7</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6987,10 +7005,10 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -7001,11 +7019,14 @@
       <c r="F121" t="s">
         <v>7</v>
       </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
       <c r="H121" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -7013,10 +7034,10 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -7027,17 +7048,11 @@
       <c r="F122" t="s">
         <v>7</v>
       </c>
-      <c r="G122" t="s">
-        <v>7</v>
-      </c>
       <c r="H122" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J122" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7045,27 +7060,59 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C123" t="s">
+        <v>327</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" t="s">
         <v>92</v>
       </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="7" t="s">
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I124" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7192,7 +7239,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="345">
   <si>
     <t>Schema</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Additional cost</t>
   </si>
   <si>
-    <t>Nebenkosten</t>
-  </si>
-  <si>
     <t>Automatic</t>
   </si>
   <si>
@@ -1166,6 +1163,27 @@
   </si>
   <si>
     <t>Autos,JobPositions,SalaryTypes</t>
+  </si>
+  <si>
+    <t>Material_Delivery_Rsp</t>
+  </si>
+  <si>
+    <t>Material Eingang</t>
+  </si>
+  <si>
+    <t>Material delivery</t>
+  </si>
+  <si>
+    <t>ForeignProducts</t>
+  </si>
+  <si>
+    <t>Foreign products</t>
+  </si>
+  <si>
+    <t>Fremdleistung</t>
+  </si>
+  <si>
+    <t>Sonstige Kosten</t>
   </si>
 </sst>
 </file>
@@ -1600,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="AF43" sqref="AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,10 +1734,10 @@
         <v>57</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>65</v>
@@ -1731,7 +1749,7 @@
         <v>67</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O5" t="s">
         <v>73</v>
@@ -1921,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1933,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
@@ -1960,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="AD6" s="12" t="str">
-        <f t="shared" ref="AD6:AD7" si="1">O6</f>
+        <f t="shared" ref="AD6:AD8" si="1">O6</f>
         <v>Material</v>
       </c>
       <c r="AF6" t="s">
@@ -1972,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1980,82 +1998,60 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="O7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" t="s">
         <v>301</v>
       </c>
-      <c r="P7" t="s">
-        <v>302</v>
-      </c>
-      <c r="R7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="14">
+      <c r="X8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="14">
         <v>19</v>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Nebenkostenarten</v>
       </c>
-      <c r="AF7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" t="s">
-        <v>324</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="12" t="str">
-        <f t="shared" ref="AD8" si="2">O8</f>
-        <v>Nebenkosten</v>
-      </c>
       <c r="AF8" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -2082,20 +2078,27 @@
       <c r="J9" t="s">
         <v>7</v>
       </c>
+      <c r="N9" t="s">
+        <v>323</v>
+      </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
       <c r="AC9" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="AD9" s="12" t="str">
+        <f t="shared" ref="AD9" si="2">O9</f>
+        <v>Sonstige Kosten</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -2103,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -2121,36 +2124,27 @@
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
         <v>7</v>
       </c>
-      <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" t="s">
-        <v>7</v>
-      </c>
       <c r="AC10" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -2158,43 +2152,46 @@
       <c r="D11" t="s">
         <v>55</v>
       </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R11" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>141</v>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
+        <v>7</v>
       </c>
       <c r="AC11" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -2205,29 +2202,40 @@
       <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>103</v>
       </c>
-      <c r="O12" t="s">
-        <v>138</v>
-      </c>
       <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AD12"/>
+      <c r="V12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -2235,46 +2243,32 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
       <c r="O13" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
-      </c>
-      <c r="R13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>7</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AD13"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2282,46 +2276,35 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
       <c r="J14" t="s">
         <v>7</v>
       </c>
-      <c r="N14" t="s">
-        <v>323</v>
-      </c>
       <c r="O14" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R14" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="T14" t="s">
-        <v>226</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Z14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="W14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC14" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="s">
         <v>7</v>
@@ -2332,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -2343,41 +2326,54 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" t="s">
-        <v>213</v>
+      <c r="N15" t="s">
+        <v>322</v>
       </c>
       <c r="O15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>7</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="T15" t="s">
+        <v>225</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Z15" t="s">
         <v>7</v>
       </c>
       <c r="AA15" t="s">
         <v>7</v>
       </c>
-      <c r="AB15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD15"/>
+      <c r="AC15" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2388,30 +2384,41 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" t="s">
+        <v>212</v>
+      </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
-      </c>
-      <c r="R16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="AC16" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>169</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2422,29 +2429,30 @@
       <c r="J17" t="s">
         <v>7</v>
       </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>168</v>
       </c>
-      <c r="O17" t="s">
-        <v>173</v>
-      </c>
       <c r="P17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD17"/>
+        <v>169</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="AC17" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2452,43 +2460,32 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="s">
+        <v>167</v>
+      </c>
       <c r="O18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
-      </c>
-      <c r="R18" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" t="s">
-        <v>183</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC18" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>7</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AD18"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2496,20 +2493,35 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="K19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" t="s">
         <v>176</v>
       </c>
-      <c r="O19" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>181</v>
+      </c>
+      <c r="T19" t="s">
+        <v>182</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2517,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2529,16 +2541,16 @@
         <v>7</v>
       </c>
       <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
         <v>179</v>
       </c>
-      <c r="M20" t="s">
-        <v>176</v>
-      </c>
-      <c r="O20" t="s">
-        <v>329</v>
-      </c>
       <c r="P20" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2546,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2554,20 +2566,20 @@
       <c r="D21" t="s">
         <v>55</v>
       </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="s">
+        <v>175</v>
+      </c>
       <c r="O21" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
-      </c>
-      <c r="R21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="12" t="s">
-        <v>186</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2575,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2583,25 +2595,20 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
       <c r="O22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="R22" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
       <c r="AC22" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>191</v>
+        <v>13</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2609,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2620,29 +2627,30 @@
       <c r="J23" t="s">
         <v>7</v>
       </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>190</v>
-      </c>
-      <c r="M23" t="s">
-        <v>188</v>
-      </c>
-      <c r="O23" t="s">
-        <v>192</v>
       </c>
       <c r="P23" t="s">
         <v>192</v>
       </c>
-      <c r="AD23"/>
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="AC23" s="14">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2657,16 +2665,16 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2675,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2683,47 +2691,32 @@
       <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
       <c r="J25" t="s">
         <v>7</v>
       </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" t="s">
+        <v>294</v>
+      </c>
       <c r="O25" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
-      </c>
-      <c r="R25" t="s">
-        <v>7</v>
-      </c>
-      <c r="W25" t="s">
-        <v>27</v>
-      </c>
-      <c r="X25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD25" s="12" t="str">
-        <f t="shared" ref="AD25" si="3">O25</f>
-        <v>Dienststelle</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2740,53 +2733,38 @@
       <c r="J26" t="s">
         <v>7</v>
       </c>
-      <c r="N26" t="s">
-        <v>259</v>
-      </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="R26" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="T26" t="s">
-        <v>276</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="W26" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="X26" t="s">
         <v>7</v>
       </c>
       <c r="AC26" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD26" s="12" t="str">
-        <f t="shared" ref="AD26" si="4">O26</f>
-        <v>Auto</v>
+        <f t="shared" ref="AD26" si="3">O26</f>
+        <v>Dienststelle</v>
       </c>
       <c r="AF26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2794,48 +2772,51 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
       <c r="J27" t="s">
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="R27" t="s">
         <v>7</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="T27" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="W27" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="X27" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" t="s">
-        <v>7</v>
-      </c>
       <c r="AC27" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD27" s="12" t="str">
-        <f t="shared" ref="AD27" si="5">O27</f>
-        <v>Mitarbeiter</v>
+        <f t="shared" ref="AD27" si="4">O27</f>
+        <v>Auto</v>
       </c>
       <c r="AF27" t="s">
         <v>7</v>
@@ -2846,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2857,13 +2838,47 @@
       <c r="J28" t="s">
         <v>7</v>
       </c>
+      <c r="N28" t="s">
+        <v>337</v>
+      </c>
       <c r="O28" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="R28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="T28" t="s">
+        <v>311</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>17</v>
+      </c>
+      <c r="AD28" s="12" t="str">
+        <f t="shared" ref="AD28" si="5">O28</f>
+        <v>Mitarbeiter</v>
+      </c>
+      <c r="AF28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2872,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2880,44 +2895,16 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
       <c r="J29" t="s">
         <v>7</v>
       </c>
-      <c r="N29" t="s">
-        <v>320</v>
-      </c>
       <c r="O29" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="P29" t="s">
-        <v>260</v>
-      </c>
-      <c r="W29" t="s">
-        <v>27</v>
-      </c>
-      <c r="X29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD29" s="12" t="str">
-        <f t="shared" ref="AD29" si="6">O29</f>
-        <v>Werkzeug</v>
-      </c>
-      <c r="AF29" t="s">
+        <v>254</v>
+      </c>
+      <c r="R29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2926,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2934,14 +2921,45 @@
       <c r="D30" t="s">
         <v>55</v>
       </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
       <c r="J30" t="s">
         <v>7</v>
       </c>
+      <c r="N30" t="s">
+        <v>319</v>
+      </c>
       <c r="O30" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>259</v>
+      </c>
+      <c r="W30" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD30" s="12" t="str">
+        <f t="shared" ref="AD30" si="6">O30</f>
+        <v>Werkzeug</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -2949,7 +2967,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2961,19 +2979,10 @@
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -2981,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -2993,10 +3002,19 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -3004,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -3016,13 +3034,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="P33" t="s">
-        <v>280</v>
-      </c>
-      <c r="R33" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -3030,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -3042,10 +3057,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P34" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R34" t="s">
         <v>7</v>
@@ -3056,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -3068,10 +3083,10 @@
         <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="R35" t="s">
         <v>7</v>
@@ -3082,7 +3097,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -3094,10 +3109,10 @@
         <v>7</v>
       </c>
       <c r="O36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R36" t="s">
         <v>7</v>
@@ -3108,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3116,11 +3131,17 @@
       <c r="D37" t="s">
         <v>55</v>
       </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
       <c r="O37" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="P37" t="s">
-        <v>299</v>
+        <v>285</v>
+      </c>
+      <c r="R37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -3128,7 +3149,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -3136,36 +3157,11 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" t="s">
-        <v>237</v>
-      </c>
       <c r="O38" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
-      </c>
-      <c r="R38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="14">
-        <v>20</v>
-      </c>
-      <c r="AD38" s="12" t="str">
-        <f t="shared" ref="AD38" si="7">O38</f>
-        <v>Stundensätze</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -3173,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -3181,26 +3177,36 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
       <c r="J39" t="s">
         <v>7</v>
       </c>
-      <c r="K39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" t="s">
-        <v>313</v>
-      </c>
-      <c r="M39" t="s">
-        <v>240</v>
-      </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="O39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>305</v>
+      </c>
+      <c r="R39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>20</v>
+      </c>
+      <c r="AD39" s="12" t="str">
+        <f t="shared" ref="AD39" si="7">O39</f>
+        <v>Stundensätze</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -3208,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3216,36 +3222,26 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>7</v>
-      </c>
       <c r="J40" t="s">
         <v>7</v>
       </c>
+      <c r="K40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="s">
+        <v>239</v>
+      </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P40" t="s">
-        <v>316</v>
-      </c>
-      <c r="R40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" s="14">
-        <v>21</v>
-      </c>
-      <c r="AD40" s="12" t="str">
-        <f t="shared" ref="AD40" si="8">O40</f>
-        <v>Sonderleistungen</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -3253,7 +3249,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3261,16 +3257,35 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
       <c r="J41" t="s">
         <v>7</v>
       </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD41" s="12" t="str">
+        <f t="shared" ref="AD41" si="8">O41</f>
+        <v>Sonderleistungen</v>
+      </c>
+      <c r="AF41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3279,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3287,36 +3302,113 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
       <c r="J42" t="s">
         <v>7</v>
       </c>
       <c r="O42" t="s">
+        <v>317</v>
+      </c>
+      <c r="P42" t="s">
+        <v>318</v>
+      </c>
+      <c r="R42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" t="s">
+        <v>320</v>
+      </c>
+      <c r="P43" t="s">
         <v>321</v>
       </c>
-      <c r="P42" t="s">
-        <v>322</v>
-      </c>
-      <c r="R42" t="s">
-        <v>7</v>
-      </c>
-      <c r="W42" t="s">
-        <v>92</v>
-      </c>
-      <c r="X42" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC42" s="14">
+      <c r="R43" t="s">
+        <v>7</v>
+      </c>
+      <c r="W43" t="s">
+        <v>91</v>
+      </c>
+      <c r="X43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="14">
         <v>22</v>
       </c>
-      <c r="AD42" s="12" t="str">
-        <f t="shared" ref="AD42" si="9">O42</f>
+      <c r="AD43" s="12" t="str">
+        <f t="shared" ref="AD43" si="9">O43</f>
         <v>Erlöskonten</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>343</v>
+      </c>
+      <c r="P44" t="s">
+        <v>342</v>
+      </c>
+      <c r="R44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W44" t="s">
+        <v>17</v>
+      </c>
+      <c r="X44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC44" s="14">
+        <v>23</v>
+      </c>
+      <c r="AD44" s="12" t="str">
+        <f t="shared" ref="AD44" si="10">O44</f>
+        <v>Fremdleistung</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3336,13 +3428,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
+      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,10 +3509,10 @@
         <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3689,28 +3781,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" t="s">
         <v>256</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3750,7 +3842,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -3765,10 +3857,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3779,16 +3871,16 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3799,28 +3891,28 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" t="s">
         <v>304</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="J15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3831,7 +3923,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3846,13 +3938,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3863,7 +3955,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -3878,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3892,7 +3984,7 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -3904,10 +3996,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3930,7 +4022,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -3941,10 +4033,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -3959,10 +4051,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3970,10 +4062,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -3988,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3999,10 +4091,10 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -4017,10 +4109,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4028,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -4057,7 +4149,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -4086,10 +4178,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -4104,10 +4196,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4115,10 +4207,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -4133,10 +4225,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4144,10 +4236,10 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -4162,10 +4254,10 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O27" s="14">
         <v>1</v>
@@ -4179,7 +4271,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -4214,10 +4306,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -4232,10 +4324,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O29" s="14">
         <v>2</v>
@@ -4249,10 +4341,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -4267,10 +4359,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O30" s="14">
         <v>1</v>
@@ -4284,10 +4376,10 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -4302,10 +4394,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="O31" s="14">
         <v>2</v>
@@ -4319,10 +4411,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -4334,10 +4426,10 @@
         <v>7</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O32" s="14">
         <v>6</v>
@@ -4351,10 +4443,10 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -4363,10 +4455,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O33" s="14">
         <v>6</v>
@@ -4380,10 +4472,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -4395,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O34" s="14">
         <v>6</v>
@@ -4412,10 +4504,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -4424,10 +4516,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="14">
         <v>1</v>
@@ -4441,10 +4533,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -4453,10 +4545,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="14">
         <v>3</v>
@@ -4470,10 +4562,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -4482,10 +4574,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="14">
         <v>3</v>
@@ -4499,10 +4591,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -4511,10 +4603,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="14">
         <v>3</v>
@@ -4528,10 +4620,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -4540,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="14">
         <v>7</v>
@@ -4557,10 +4649,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -4569,10 +4661,10 @@
         <v>7</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="14">
         <v>5</v>
@@ -4586,10 +4678,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -4598,10 +4690,10 @@
         <v>7</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O41" s="14">
         <v>5</v>
@@ -4615,10 +4707,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -4627,10 +4719,10 @@
         <v>7</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O42" s="14">
         <v>4</v>
@@ -4644,10 +4736,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -4656,10 +4748,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="O43" s="14">
         <v>4</v>
@@ -4673,10 +4765,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -4685,10 +4777,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O44" s="14">
         <v>4</v>
@@ -4702,10 +4794,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -4714,10 +4806,10 @@
         <v>7</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O45" s="14">
         <v>7</v>
@@ -4731,10 +4823,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -4746,10 +4838,10 @@
         <v>7</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O46" s="14">
         <v>7</v>
@@ -4763,10 +4855,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -4775,10 +4867,10 @@
         <v>7</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O47" s="14">
         <v>5</v>
@@ -4792,22 +4884,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -4815,7 +4907,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4844,25 +4936,25 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4870,10 +4962,10 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -4885,10 +4977,10 @@
         <v>7</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -4896,10 +4988,10 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -4911,10 +5003,10 @@
         <v>7</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -4922,10 +5014,10 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -4937,10 +5029,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -4948,10 +5040,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -4963,10 +5055,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4974,10 +5066,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4989,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -5000,7 +5092,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5029,10 +5121,10 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -5044,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -5055,16 +5147,16 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -5072,7 +5164,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5090,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>27</v>
@@ -5110,10 +5202,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -5128,10 +5220,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O60" s="14">
         <v>2</v>
@@ -5148,31 +5240,31 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" t="s">
         <v>232</v>
-      </c>
-      <c r="J61" t="s">
-        <v>233</v>
       </c>
       <c r="O61" s="14">
         <v>2</v>
@@ -5189,10 +5281,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -5201,10 +5293,10 @@
         <v>7</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O62" s="14">
         <v>2</v>
@@ -5218,10 +5310,10 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -5233,10 +5325,10 @@
         <v>7</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O63" s="14">
         <v>3</v>
@@ -5250,10 +5342,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -5268,10 +5360,10 @@
         <v>7</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O64" s="14">
         <v>3</v>
@@ -5285,10 +5377,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -5300,13 +5392,13 @@
         <v>7</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O65" s="14">
         <v>3</v>
@@ -5320,10 +5412,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -5335,10 +5427,10 @@
         <v>7</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O66" s="14">
         <v>4</v>
@@ -5355,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -5367,10 +5459,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O67" s="14">
         <v>4</v>
@@ -5387,10 +5479,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -5402,10 +5494,10 @@
         <v>7</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="O68" s="14">
         <v>4</v>
@@ -5419,10 +5511,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -5434,10 +5526,10 @@
         <v>7</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O69" s="14">
         <v>5</v>
@@ -5451,10 +5543,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -5466,10 +5558,10 @@
         <v>7</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O70" s="14">
         <v>5</v>
@@ -5483,10 +5575,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -5498,10 +5590,10 @@
         <v>7</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O71" s="14">
         <v>5</v>
@@ -5515,25 +5607,25 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="O72" s="14">
         <v>5</v>
@@ -5547,25 +5639,25 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="O73" s="14">
         <v>5</v>
@@ -5579,7 +5671,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -5597,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>27</v>
@@ -5617,10 +5709,10 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -5635,10 +5727,10 @@
         <v>7</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O75" s="14">
         <v>2</v>
@@ -5655,28 +5747,28 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J76" t="s">
         <v>216</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J76" t="s">
-        <v>217</v>
       </c>
       <c r="O76" s="14">
         <v>2</v>
@@ -5693,31 +5785,31 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J77" t="s">
         <v>234</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="J77" t="s">
-        <v>235</v>
       </c>
       <c r="O77" s="14">
         <v>2</v>
@@ -5734,10 +5826,10 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -5752,10 +5844,10 @@
         <v>7</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O78" s="14">
         <v>3</v>
@@ -5769,10 +5861,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -5784,13 +5876,13 @@
         <v>7</v>
       </c>
       <c r="H79" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O79" s="14">
         <v>3</v>
@@ -5804,10 +5896,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -5816,10 +5908,10 @@
         <v>7</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O80" s="14">
         <v>3</v>
@@ -5833,10 +5925,10 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -5848,10 +5940,10 @@
         <v>7</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5859,11 +5951,11 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
         <v>222</v>
       </c>
-      <c r="C82" t="s">
-        <v>223</v>
-      </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
@@ -5871,10 +5963,10 @@
         <v>7</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5882,25 +5974,25 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="I83" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5908,7 +6000,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -5937,10 +6029,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -5952,10 +6044,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5963,10 +6055,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -5981,10 +6073,10 @@
         <v>7</v>
       </c>
       <c r="H86" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5992,10 +6084,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -6007,10 +6099,10 @@
         <v>7</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -6018,10 +6110,10 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -6033,10 +6125,10 @@
         <v>7</v>
       </c>
       <c r="H88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -6044,10 +6136,10 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -6062,10 +6154,10 @@
         <v>7</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O89" s="14">
         <v>2</v>
@@ -6079,7 +6171,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -6114,25 +6206,25 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="I91" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="O91" s="14">
         <v>1</v>
@@ -6146,31 +6238,31 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" t="s">
         <v>250</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J92" t="s">
-        <v>251</v>
       </c>
       <c r="O92" s="14">
         <v>2</v>
@@ -6184,10 +6276,10 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -6196,10 +6288,10 @@
         <v>7</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O93" s="14">
         <v>3</v>
@@ -6213,10 +6305,10 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -6225,10 +6317,10 @@
         <v>7</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O94" s="14">
         <v>3</v>
@@ -6242,10 +6334,10 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -6254,10 +6346,10 @@
         <v>7</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="O95" s="14">
         <v>3</v>
@@ -6271,10 +6363,10 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -6283,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O96" s="14">
         <v>4</v>
@@ -6300,10 +6392,10 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -6312,10 +6404,10 @@
         <v>7</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O97" s="14">
         <v>4</v>
@@ -6329,10 +6421,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -6341,10 +6433,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O98" s="14">
         <v>5</v>
@@ -6358,10 +6450,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -6370,10 +6462,10 @@
         <v>7</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O99" s="14">
         <v>4</v>
@@ -6387,10 +6479,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -6399,10 +6491,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O100" s="14">
         <v>5</v>
@@ -6416,10 +6508,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -6428,10 +6520,10 @@
         <v>7</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O101" s="14">
         <v>5</v>
@@ -6445,10 +6537,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -6460,10 +6552,10 @@
         <v>7</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O102" s="14">
         <v>1</v>
@@ -6480,7 +6572,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -6498,7 +6590,7 @@
         <v>7</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>27</v>
@@ -6509,10 +6601,10 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -6527,10 +6619,10 @@
         <v>7</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -6538,10 +6630,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -6553,10 +6645,10 @@
         <v>7</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6564,10 +6656,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -6582,10 +6674,10 @@
         <v>7</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6593,10 +6685,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6611,13 +6703,13 @@
         <v>7</v>
       </c>
       <c r="H107" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6625,25 +6717,25 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>7</v>
-      </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6651,7 +6743,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -6680,10 +6772,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -6698,13 +6790,13 @@
         <v>7</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -6712,10 +6804,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -6730,10 +6822,10 @@
         <v>7</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -6741,10 +6833,10 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -6759,10 +6851,10 @@
         <v>7</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6770,10 +6862,10 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -6788,10 +6880,10 @@
         <v>7</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -6799,10 +6891,10 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -6814,10 +6906,10 @@
         <v>7</v>
       </c>
       <c r="H114" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6825,10 +6917,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -6843,13 +6935,13 @@
         <v>7</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6857,10 +6949,10 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -6875,10 +6967,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -6886,10 +6978,10 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -6904,10 +6996,10 @@
         <v>7</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -6915,28 +7007,28 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="I118" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6944,31 +7036,31 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="7" t="s">
+      <c r="J119" t="s">
         <v>335</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="J119" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6976,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -7005,10 +7097,10 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -7023,10 +7115,10 @@
         <v>7</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -7034,10 +7126,10 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -7049,10 +7141,10 @@
         <v>7</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7060,10 +7152,10 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -7078,13 +7170,13 @@
         <v>7</v>
       </c>
       <c r="H123" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I123" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I123" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7092,28 +7184,170 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>341</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C128" t="s">
         <v>92</v>
       </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" t="s">
-        <v>7</v>
-      </c>
-      <c r="H124" s="7" t="s">
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I128" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>92</v>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>341</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +7440,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -7217,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -7228,7 +7462,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -7239,7 +7473,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -7250,7 +7484,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="350">
   <si>
     <t>Schema</t>
   </si>
@@ -1184,6 +1184,21 @@
   </si>
   <si>
     <t>Sonstige Kosten</t>
+  </si>
+  <si>
+    <t>SocialTaxes</t>
+  </si>
+  <si>
+    <t>ProceedsAccounts,Employees</t>
+  </si>
+  <si>
+    <t>Soziale Abgaben</t>
+  </si>
+  <si>
+    <t>Social taxes</t>
+  </si>
+  <si>
+    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -1618,13 +1633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF43" sqref="AF43"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,6 +3426,51 @@
         <v>7</v>
       </c>
     </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" t="s">
+        <v>347</v>
+      </c>
+      <c r="P45" t="s">
+        <v>348</v>
+      </c>
+      <c r="R45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>24</v>
+      </c>
+      <c r="AD45" s="12" t="str">
+        <f t="shared" ref="AD45" si="11">O45</f>
+        <v>Soziale Abgaben</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P5">
     <sortState ref="A2:K98">
@@ -3428,13 +3488,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomRight" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7227,6 +7287,9 @@
       <c r="F125" t="s">
         <v>7</v>
       </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
       <c r="H125" s="7" t="s">
         <v>78</v>
       </c>
@@ -7324,7 +7387,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -7347,6 +7410,180 @@
         <v>98</v>
       </c>
       <c r="I129" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>345</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J133" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>345</v>
+      </c>
+      <c r="C135" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I135" s="7" t="s">
         <v>96</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="350">
   <si>
     <t>Schema</t>
   </si>
@@ -1636,10 +1636,10 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7634,13 +7634,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7724,6 +7724,28 @@
         <v>239</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="350">
   <si>
     <t>Schema</t>
   </si>
@@ -3490,11 +3490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H135" sqref="H135"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,6 +4689,9 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -7636,7 +7639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="351">
   <si>
     <t>Schema</t>
   </si>
@@ -1117,9 +1117,6 @@
     <t>Proceeds accounts</t>
   </si>
   <si>
-    <t>ProductTypes,ProductAmountTypes,ProceedsAccounts</t>
-  </si>
-  <si>
     <t>AdditionalCostTypes,ProceedsAccounts</t>
   </si>
   <si>
@@ -1199,6 +1196,12 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>ProductTypes,ProductAmountTypes,ProceedsAccounts,MaterialAmountTypes</t>
+  </si>
+  <si>
+    <t>Instruments,MaterialAmountTypes</t>
   </si>
 </sst>
 </file>
@@ -1635,11 +1638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O6" t="s">
         <v>224</v>
@@ -2005,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -2017,10 +2020,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" t="s">
         <v>339</v>
-      </c>
-      <c r="P7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2094,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P9" t="s">
         <v>81</v>
@@ -2342,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="O15" t="s">
         <v>226</v>
@@ -2573,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2591,10 +2594,10 @@
         <v>175</v>
       </c>
       <c r="O21" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" t="s">
         <v>328</v>
-      </c>
-      <c r="P21" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2797,7 +2800,7 @@
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="O27" t="s">
         <v>86</v>
@@ -2854,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O28" t="s">
         <v>241</v>
@@ -3250,7 +3253,7 @@
         <v>239</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
         <v>308</v>
@@ -3380,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -3401,10 +3404,10 @@
         <v>319</v>
       </c>
       <c r="O44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R44" t="s">
         <v>7</v>
@@ -3431,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
@@ -3449,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="N45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" t="s">
         <v>346</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>347</v>
-      </c>
-      <c r="P45" t="s">
-        <v>348</v>
       </c>
       <c r="R45" t="s">
         <v>7</v>
@@ -3490,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
@@ -3983,7 +3986,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -4004,7 +4007,7 @@
         <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -5443,7 +5446,7 @@
         <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -5461,7 +5464,7 @@
         <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O65" s="14">
         <v>3</v>
@@ -5927,7 +5930,7 @@
         <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -5945,7 +5948,7 @@
         <v>88</v>
       </c>
       <c r="J79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O79" s="14">
         <v>3</v>
@@ -6751,7 +6754,7 @@
         <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -6772,7 +6775,7 @@
         <v>88</v>
       </c>
       <c r="J107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -7073,25 +7076,25 @@
         <v>307</v>
       </c>
       <c r="C118" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="I118" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7102,28 +7105,28 @@
         <v>307</v>
       </c>
       <c r="C119" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="7" t="s">
+      <c r="J119" t="s">
         <v>334</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J119" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -7218,7 +7221,7 @@
         <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -7239,7 +7242,7 @@
         <v>88</v>
       </c>
       <c r="J123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7276,7 +7279,7 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -7305,7 +7308,7 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C126" t="s">
         <v>83</v>
@@ -7334,10 +7337,10 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -7358,7 +7361,7 @@
         <v>88</v>
       </c>
       <c r="J127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -7366,7 +7369,7 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C128" t="s">
         <v>92</v>
@@ -7395,7 +7398,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s">
         <v>93</v>
@@ -7421,7 +7424,7 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C130" t="s">
         <v>255</v>
@@ -7453,7 +7456,7 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
@@ -7479,7 +7482,7 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C132" t="s">
         <v>83</v>
@@ -7497,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>83</v>
@@ -7508,10 +7511,10 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -7532,7 +7535,7 @@
         <v>88</v>
       </c>
       <c r="J133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7540,7 +7543,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s">
         <v>92</v>
@@ -7569,7 +7572,7 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C135" t="s">
         <v>93</v>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="354">
   <si>
     <t>Schema</t>
   </si>
@@ -1202,6 +1202,15 @@
   </si>
   <si>
     <t>Instruments,MaterialAmountTypes</t>
+  </si>
+  <si>
+    <t>OrderFiles</t>
+  </si>
+  <si>
+    <t>Auftrag-Dateien</t>
+  </si>
+  <si>
+    <t>Order files</t>
   </si>
 </sst>
 </file>
@@ -1636,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -2511,43 +2520,32 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
       <c r="O19" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
-      </c>
-      <c r="R19" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="T19" t="s">
-        <v>182</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>7</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="AD19"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -2555,20 +2553,35 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="K20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" t="s">
-        <v>175</v>
-      </c>
       <c r="O20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="R20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="T20" t="s">
+        <v>182</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2576,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2594,10 +2607,10 @@
         <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="P21" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2605,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2613,20 +2626,20 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="s">
+        <v>175</v>
+      </c>
       <c r="O22" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
-      </c>
-      <c r="R22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" s="14">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="12" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -2634,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2642,25 +2655,20 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
       <c r="AC23" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>190</v>
+        <v>13</v>
+      </c>
+      <c r="AD23" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -2668,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2679,29 +2687,30 @@
       <c r="J24" t="s">
         <v>7</v>
       </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M24" t="s">
-        <v>187</v>
-      </c>
       <c r="O24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD24"/>
+        <v>192</v>
+      </c>
+      <c r="R24" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="AC24" s="14">
+        <v>14</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2716,16 +2725,16 @@
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2734,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2742,47 +2751,32 @@
       <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>7</v>
-      </c>
       <c r="J26" t="s">
         <v>7</v>
       </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" t="s">
+        <v>294</v>
+      </c>
       <c r="O26" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC26" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD26" s="12" t="str">
-        <f t="shared" ref="AD26" si="3">O26</f>
-        <v>Dienststelle</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2799,53 +2793,38 @@
       <c r="J27" t="s">
         <v>7</v>
       </c>
-      <c r="N27" t="s">
-        <v>350</v>
-      </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="P27" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="R27" t="s">
         <v>7</v>
       </c>
-      <c r="S27" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="T27" t="s">
-        <v>275</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="W27" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="X27" t="s">
         <v>7</v>
       </c>
       <c r="AC27" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD27" s="12" t="str">
-        <f t="shared" ref="AD27" si="4">O27</f>
-        <v>Auto</v>
+        <f t="shared" ref="AD27" si="3">O27</f>
+        <v>Dienststelle</v>
       </c>
       <c r="AF27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2853,48 +2832,51 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
       <c r="J28" t="s">
         <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="O28" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="R28" t="s">
         <v>7</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="T28" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="W28" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="X28" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" t="s">
-        <v>7</v>
-      </c>
       <c r="AC28" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD28" s="12" t="str">
-        <f t="shared" ref="AD28" si="5">O28</f>
-        <v>Mitarbeiter</v>
+        <f t="shared" ref="AD28" si="4">O28</f>
+        <v>Auto</v>
       </c>
       <c r="AF28" t="s">
         <v>7</v>
@@ -2905,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2916,13 +2898,47 @@
       <c r="J29" t="s">
         <v>7</v>
       </c>
+      <c r="N29" t="s">
+        <v>336</v>
+      </c>
       <c r="O29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>17</v>
+      </c>
+      <c r="AD29" s="12" t="str">
+        <f t="shared" ref="AD29" si="5">O29</f>
+        <v>Mitarbeiter</v>
+      </c>
+      <c r="AF29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2931,7 +2947,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2939,44 +2955,16 @@
       <c r="D30" t="s">
         <v>55</v>
       </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>7</v>
-      </c>
       <c r="J30" t="s">
         <v>7</v>
       </c>
-      <c r="N30" t="s">
-        <v>319</v>
-      </c>
       <c r="O30" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
-      </c>
-      <c r="W30" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC30" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD30" s="12" t="str">
-        <f t="shared" ref="AD30" si="6">O30</f>
-        <v>Werkzeug</v>
-      </c>
-      <c r="AF30" t="s">
+        <v>254</v>
+      </c>
+      <c r="R30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2985,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2993,14 +2981,45 @@
       <c r="D31" t="s">
         <v>55</v>
       </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
       <c r="J31" t="s">
         <v>7</v>
       </c>
+      <c r="N31" t="s">
+        <v>319</v>
+      </c>
       <c r="O31" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="W31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD31" s="12" t="str">
+        <f t="shared" ref="AD31" si="6">O31</f>
+        <v>Werkzeug</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -3008,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -3020,19 +3039,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -3040,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -3052,10 +3062,19 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P33" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -3063,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -3075,13 +3094,10 @@
         <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
-      </c>
-      <c r="R34" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -3089,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -3101,10 +3117,10 @@
         <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R35" t="s">
         <v>7</v>
@@ -3115,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -3127,10 +3143,10 @@
         <v>7</v>
       </c>
       <c r="O36" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s">
         <v>7</v>
@@ -3141,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3153,10 +3169,10 @@
         <v>7</v>
       </c>
       <c r="O37" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P37" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="R37" t="s">
         <v>7</v>
@@ -3167,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -3175,11 +3191,17 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
       <c r="O38" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P38" t="s">
-        <v>298</v>
+        <v>285</v>
+      </c>
+      <c r="R38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -3187,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -3195,36 +3217,11 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" t="s">
-        <v>236</v>
-      </c>
       <c r="O39" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s">
-        <v>305</v>
-      </c>
-      <c r="R39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" s="14">
-        <v>20</v>
-      </c>
-      <c r="AD39" s="12" t="str">
-        <f t="shared" ref="AD39" si="7">O39</f>
-        <v>Stundensätze</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -3232,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -3240,26 +3237,36 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
       <c r="J40" t="s">
         <v>7</v>
       </c>
-      <c r="K40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" t="s">
-        <v>312</v>
-      </c>
-      <c r="M40" t="s">
-        <v>239</v>
-      </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="O40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>20</v>
+      </c>
+      <c r="AD40" s="12" t="str">
+        <f t="shared" ref="AD40" si="7">O40</f>
+        <v>Stundensätze</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -3267,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -3275,36 +3282,26 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
       <c r="J41" t="s">
         <v>7</v>
       </c>
+      <c r="K41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="s">
+        <v>239</v>
+      </c>
       <c r="N41" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P41" t="s">
-        <v>315</v>
-      </c>
-      <c r="R41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="14">
-        <v>21</v>
-      </c>
-      <c r="AD41" s="12" t="str">
-        <f t="shared" ref="AD41" si="8">O41</f>
-        <v>Sonderleistungen</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -3312,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -3320,16 +3317,35 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
       <c r="J42" t="s">
         <v>7</v>
       </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
       <c r="O42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="R42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD42" s="12" t="str">
+        <f t="shared" ref="AD42" si="8">O42</f>
+        <v>Sonderleistungen</v>
+      </c>
+      <c r="AF42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3338,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3346,36 +3362,17 @@
       <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
-      </c>
       <c r="J43" t="s">
         <v>7</v>
       </c>
       <c r="O43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R43" t="s">
         <v>7</v>
-      </c>
-      <c r="W43" t="s">
-        <v>91</v>
-      </c>
-      <c r="X43" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC43" s="14">
-        <v>22</v>
-      </c>
-      <c r="AD43" s="12" t="str">
-        <f t="shared" ref="AD43" si="9">O43</f>
-        <v>Erlöskonten</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -3383,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -3400,33 +3397,27 @@
       <c r="J44" t="s">
         <v>7</v>
       </c>
-      <c r="N44" t="s">
-        <v>319</v>
-      </c>
       <c r="O44" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="P44" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="R44" t="s">
         <v>7</v>
       </c>
       <c r="W44" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="X44" t="s">
         <v>7</v>
       </c>
       <c r="AC44" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD44" s="12" t="str">
-        <f t="shared" ref="AD44" si="10">O44</f>
-        <v>Fremdleistung</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>7</v>
+        <f t="shared" ref="AD44" si="9">O44</f>
+        <v>Erlöskonten</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -3434,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
@@ -3452,25 +3443,76 @@
         <v>7</v>
       </c>
       <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>342</v>
+      </c>
+      <c r="P45" t="s">
+        <v>341</v>
+      </c>
+      <c r="R45" t="s">
+        <v>7</v>
+      </c>
+      <c r="W45" t="s">
+        <v>17</v>
+      </c>
+      <c r="X45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>23</v>
+      </c>
+      <c r="AD45" s="12" t="str">
+        <f t="shared" ref="AD45" si="10">O45</f>
+        <v>Fremdleistung</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" t="s">
         <v>345</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O46" t="s">
         <v>346</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P46" t="s">
         <v>347</v>
       </c>
-      <c r="R45" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC45" s="14">
+      <c r="R46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC46" s="14">
         <v>24</v>
       </c>
-      <c r="AD45" s="12" t="str">
-        <f t="shared" ref="AD45" si="11">O45</f>
+      <c r="AD46" s="12" t="str">
+        <f t="shared" ref="AD46" si="11">O46</f>
         <v>Soziale Abgaben</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AF46" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="362">
   <si>
     <t>Schema</t>
   </si>
@@ -1211,6 +1211,30 @@
   </si>
   <si>
     <t>Order files</t>
+  </si>
+  <si>
+    <t>Absences</t>
+  </si>
+  <si>
+    <t>Abwesenheiten</t>
+  </si>
+  <si>
+    <t>NotProductiveWorkHours</t>
+  </si>
+  <si>
+    <t>Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>Workhours</t>
+  </si>
+  <si>
+    <t>OwnProducts</t>
+  </si>
+  <si>
+    <t>Eigene Leistung</t>
+  </si>
+  <si>
+    <t>Own products</t>
   </si>
 </sst>
 </file>
@@ -1645,13 +1669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,6 +3540,141 @@
         <v>7</v>
       </c>
     </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" t="s">
+        <v>239</v>
+      </c>
+      <c r="O47" t="s">
+        <v>355</v>
+      </c>
+      <c r="P47" t="s">
+        <v>354</v>
+      </c>
+      <c r="R47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC47" s="14">
+        <v>25</v>
+      </c>
+      <c r="AD47" s="12" t="str">
+        <f t="shared" ref="AD47" si="12">O47</f>
+        <v>Abwesenheiten</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O48" t="s">
+        <v>357</v>
+      </c>
+      <c r="P48" t="s">
+        <v>358</v>
+      </c>
+      <c r="R48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC48" s="14">
+        <v>26</v>
+      </c>
+      <c r="AD48" s="12" t="str">
+        <f t="shared" ref="AD48:AD49" si="13">O48</f>
+        <v>Arbeitszeiten</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>360</v>
+      </c>
+      <c r="P49" t="s">
+        <v>361</v>
+      </c>
+      <c r="R49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>27</v>
+      </c>
+      <c r="AD49" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Eigene Leistung</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P5">
     <sortState ref="A2:K98">
@@ -3533,13 +3692,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,6 +7791,383 @@
         <v>98</v>
       </c>
       <c r="I135" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" t="s">
+        <v>325</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J138" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>359</v>
+      </c>
+      <c r="C139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>359</v>
+      </c>
+      <c r="C140" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>354</v>
+      </c>
+      <c r="C141" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>354</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J145" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I148" s="7" t="s">
         <v>96</v>
       </c>
     </row>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="363">
   <si>
     <t>Schema</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t>Own products</t>
+  </si>
+  <si>
+    <t>IsDateTimePicker</t>
   </si>
 </sst>
 </file>
@@ -3692,13 +3695,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T148"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
+      <selection pane="bottomRight" activeCell="U147" sqref="U147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,7 +3720,7 @@
     <col min="15" max="16" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3775,11 +3778,14 @@
       <c r="S1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8144,8 +8150,11 @@
       <c r="I147" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -8169,6 +8178,9 @@
       </c>
       <c r="I148" s="7" t="s">
         <v>96</v>
+      </c>
+      <c r="U148" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -1231,13 +1231,13 @@
     <t>OwnProducts</t>
   </si>
   <si>
-    <t>Eigene Leistung</t>
-  </si>
-  <si>
     <t>Own products</t>
   </si>
   <si>
     <t>IsDateTimePicker</t>
+  </si>
+  <si>
+    <t>Eigenleistung</t>
   </si>
 </sst>
 </file>
@@ -1674,11 +1674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,10 +3659,10 @@
         <v>319</v>
       </c>
       <c r="O49" t="s">
+        <v>362</v>
+      </c>
+      <c r="P49" t="s">
         <v>360</v>
-      </c>
-      <c r="P49" t="s">
-        <v>361</v>
       </c>
       <c r="R49" t="s">
         <v>7</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="AD49" s="12" t="str">
         <f t="shared" si="13"/>
-        <v>Eigene Leistung</v>
+        <v>Eigenleistung</v>
       </c>
       <c r="AF49" t="s">
         <v>7</v>
@@ -3697,11 +3697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U147" sqref="U147"/>
+      <selection pane="bottomRight" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3782,7 @@
         <v>288</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">

--- a/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
+++ b/ProfiCraftsman/ProfiCraftsman/Generation/ProfiCraftsman.Generation/Declarations/Stammdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="365">
   <si>
     <t>Schema</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>Eigenleistung</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Zinsen</t>
   </si>
 </sst>
 </file>
@@ -1672,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,12 +3487,6 @@
       <c r="R45" t="s">
         <v>7</v>
       </c>
-      <c r="W45" t="s">
-        <v>17</v>
-      </c>
-      <c r="X45" t="s">
-        <v>7</v>
-      </c>
       <c r="AC45" s="14">
         <v>23</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>26</v>
       </c>
       <c r="AD48" s="12" t="str">
-        <f t="shared" ref="AD48:AD49" si="13">O48</f>
+        <f t="shared" ref="AD48:AD50" si="13">O48</f>
         <v>Arbeitszeiten</v>
       </c>
       <c r="AF48" t="s">
@@ -3675,6 +3675,51 @@
         <v>Eigenleistung</v>
       </c>
       <c r="AF49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O50" t="s">
+        <v>364</v>
+      </c>
+      <c r="P50" t="s">
+        <v>363</v>
+      </c>
+      <c r="R50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>28</v>
+      </c>
+      <c r="AD50" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Zinsen</v>
+      </c>
+      <c r="AF50" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3695,13 +3740,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U148"/>
+  <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J137" sqref="J137"/>
+      <selection pane="bottomRight" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8181,6 +8226,151 @@
       </c>
       <c r="U148" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>363</v>
+      </c>
+      <c r="C153" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
